--- a/data/CRM_Testdata - Copy (2).xlsx
+++ b/data/CRM_Testdata - Copy (2).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\schandr3\eclipse-workspace\Dynamics-CRM\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vkamalak\git\OnPremise\Dynamics-CRM-Stage\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9415F64-3BB8-40B6-AA1C-58FFEE335E91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E7DDEF-F923-43F5-B7D6-3A231169EC14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="599" xr2:uid="{442E3441-3F3C-4A77-BB17-E93CAE512719}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="599" xr2:uid="{442E3441-3F3C-4A77-BB17-E93CAE512719}"/>
   </bookViews>
   <sheets>
     <sheet name="Driver" sheetId="4" r:id="rId1"/>
@@ -19,11 +19,11 @@
     <sheet name="Contact" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Driver!$A$1:$I$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Driver!$A$1:$I$54</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1852" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="457">
   <si>
     <t>UserName</t>
   </si>
@@ -926,9 +926,6 @@
     <t>2000424828</t>
   </si>
   <si>
-    <t>corp\crmtest10</t>
-  </si>
-  <si>
     <t>TFS ID_ 7485:Verify on "Update" following fields in Limited Member ,"Record status" should get changed to Need Approval.</t>
   </si>
   <si>
@@ -1094,9 +1091,6 @@
     <t>Standard</t>
   </si>
   <si>
-    <t>corp\crmtest06</t>
-  </si>
-  <si>
     <t>RunMode</t>
   </si>
   <si>
@@ -1106,9 +1100,6 @@
     <t>TC4547</t>
   </si>
   <si>
-    <t>https://crmstage.premierinc.com/</t>
-  </si>
-  <si>
     <t>GroupSource</t>
   </si>
   <si>
@@ -1208,190 +1199,217 @@
     <t>Bessert, Jennifer</t>
   </si>
   <si>
+    <t>8/20/2021</t>
+  </si>
+  <si>
+    <t>7/23/2021</t>
+  </si>
+  <si>
+    <t>7137_CreateMemberProspectFirst</t>
+  </si>
+  <si>
+    <t>8218_ReactivateTerminatedMem</t>
+  </si>
+  <si>
+    <t>7138_SubAccProspectFirst</t>
+  </si>
+  <si>
+    <t>7139_EntryFormSubAccProsFirst</t>
+  </si>
+  <si>
+    <t>7491_New Business Partner</t>
+  </si>
+  <si>
+    <t>1141_Validate Business Key</t>
+  </si>
+  <si>
+    <t>7312_UpdatePrimaryContact</t>
+  </si>
+  <si>
+    <t>7152_MailToAccProspectFirst</t>
+  </si>
+  <si>
+    <t>7151_BillToAccProspectFirst</t>
+  </si>
+  <si>
+    <t>7150_ShipToAccProspectFirst</t>
+  </si>
+  <si>
+    <t>7150_MemberEntryShipToAccProspectFirst</t>
+  </si>
+  <si>
+    <t>7147_SubAccShipToAccProspectFirst</t>
+  </si>
+  <si>
+    <t>7150_ShipToMainAccConversion</t>
+  </si>
+  <si>
+    <t>7149_ShipToAccForConversion</t>
+  </si>
+  <si>
+    <t>TP_7144_MemberFirst</t>
+  </si>
+  <si>
+    <t>TP_7143_ProspectFirst</t>
+  </si>
+  <si>
+    <t>7142_MemberEntryMemberFirst</t>
+  </si>
+  <si>
+    <t>7141_MemberFirst</t>
+  </si>
+  <si>
+    <t>7140_MemberEntryProspectFirst</t>
+  </si>
+  <si>
+    <t>9/30/2021</t>
+  </si>
+  <si>
+    <t>GroupSource NonAcute</t>
+  </si>
+  <si>
+    <t>Non Premier NonAcute</t>
+  </si>
+  <si>
+    <t>AffiliateGroupAfterReactivation</t>
+  </si>
+  <si>
+    <t>Affiliate</t>
+  </si>
+  <si>
+    <t>OLM</t>
+  </si>
+  <si>
+    <t>TFS ID_7111:CreateSubAccountUnderAccount</t>
+  </si>
+  <si>
+    <t>SubAccount</t>
+  </si>
+  <si>
+    <t>SubAccountcount</t>
+  </si>
+  <si>
+    <t>2000092265</t>
+  </si>
+  <si>
+    <t>Avera @ Home</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>UserName2</t>
+  </si>
+  <si>
+    <t>TFS ID_ 7112:Verify if primary account of a contact has been changed then other associated Contact account association should not get end dated/terminated</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>https://crmstage.premierinc.com/main.aspx#7815483</t>
+  </si>
+  <si>
+    <t>corp\crmtest07</t>
+  </si>
+  <si>
+    <t>corp\crmtest05</t>
+  </si>
+  <si>
+    <t>2000472471</t>
+  </si>
+  <si>
     <t>No Run</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>8/20/2021</t>
-  </si>
-  <si>
-    <t>7/23/2021</t>
-  </si>
-  <si>
-    <t>7137_CreateMemberProspectFirst</t>
-  </si>
-  <si>
-    <t>8218_ReactivateTerminatedMem</t>
-  </si>
-  <si>
-    <t>7138_SubAccProspectFirst</t>
-  </si>
-  <si>
-    <t>7139_EntryFormSubAccProsFirst</t>
-  </si>
-  <si>
-    <t>7491_New Business Partner</t>
-  </si>
-  <si>
-    <t>1141_Validate Business Key</t>
-  </si>
-  <si>
-    <t>7312_UpdatePrimaryContact</t>
-  </si>
-  <si>
-    <t>7152_MailToAccProspectFirst</t>
-  </si>
-  <si>
-    <t>7151_BillToAccProspectFirst</t>
-  </si>
-  <si>
-    <t>7150_ShipToAccProspectFirst</t>
-  </si>
-  <si>
-    <t>7150_MemberEntryShipToAccProspectFirst</t>
-  </si>
-  <si>
-    <t>7147_SubAccShipToAccProspectFirst</t>
-  </si>
-  <si>
-    <t>7150_ShipToMainAccConversion</t>
-  </si>
-  <si>
-    <t>7149_ShipToAccForConversion</t>
-  </si>
-  <si>
-    <t>TP_7144_MemberFirst</t>
-  </si>
-  <si>
-    <t>TP_7143_ProspectFirst</t>
-  </si>
-  <si>
-    <t>7142_MemberEntryMemberFirst</t>
-  </si>
-  <si>
-    <t>7141_MemberFirst</t>
-  </si>
-  <si>
-    <t>7140_MemberEntryProspectFirst</t>
-  </si>
-  <si>
-    <t>9/30/2021</t>
-  </si>
-  <si>
-    <t>GroupSource NonAcute</t>
-  </si>
-  <si>
-    <t>Non Premier NonAcute</t>
-  </si>
-  <si>
-    <t>AffiliateGroupAfterReactivation</t>
-  </si>
-  <si>
-    <t>2000488060</t>
-  </si>
-  <si>
-    <t>2000488061</t>
-  </si>
-  <si>
-    <t>2000488062</t>
-  </si>
-  <si>
-    <t>2000488063</t>
-  </si>
-  <si>
-    <t>2000488064</t>
-  </si>
-  <si>
-    <t>2000488065</t>
-  </si>
-  <si>
-    <t>Affiliate</t>
-  </si>
-  <si>
-    <t>OLM</t>
-  </si>
-  <si>
-    <t>PASSED</t>
-  </si>
-  <si>
-    <t>7000564154</t>
-  </si>
-  <si>
-    <t>7000564155</t>
-  </si>
-  <si>
-    <t>7000564156</t>
-  </si>
-  <si>
-    <t>7000564157</t>
-  </si>
-  <si>
-    <t>7000564158</t>
-  </si>
-  <si>
-    <t>7000564159</t>
-  </si>
-  <si>
-    <t>7000564160</t>
-  </si>
-  <si>
-    <t>2000505008</t>
-  </si>
-  <si>
-    <t>2000505013</t>
-  </si>
-  <si>
-    <t>2000505014</t>
-  </si>
-  <si>
-    <t>2000505015</t>
-  </si>
-  <si>
-    <t>2000505016</t>
-  </si>
-  <si>
-    <t>2000505019</t>
-  </si>
-  <si>
-    <t>2000505020</t>
-  </si>
-  <si>
-    <t>2000505053</t>
-  </si>
-  <si>
-    <t>2000505086</t>
-  </si>
-  <si>
-    <t>379187184</t>
-  </si>
-  <si>
-    <t>cf2031211</t>
-  </si>
-  <si>
-    <t>2021_10_29_04_44_42</t>
-  </si>
-  <si>
-    <t>2000505087</t>
+    <t>7000575321</t>
+  </si>
+  <si>
+    <t>7000575322</t>
+  </si>
+  <si>
+    <t>7000575323</t>
+  </si>
+  <si>
+    <t>7000575324</t>
+  </si>
+  <si>
+    <t>7000575325</t>
+  </si>
+  <si>
+    <t>7000575326</t>
+  </si>
+  <si>
+    <t>7000575327</t>
+  </si>
+  <si>
+    <t>2000545587</t>
+  </si>
+  <si>
+    <t>2000545588</t>
+  </si>
+  <si>
+    <t>2000545589</t>
+  </si>
+  <si>
+    <t>2000545590</t>
+  </si>
+  <si>
+    <t>2000545593</t>
+  </si>
+  <si>
+    <t>2000545595</t>
+  </si>
+  <si>
+    <t>2000545596</t>
+  </si>
+  <si>
+    <t>2000545597</t>
+  </si>
+  <si>
+    <t>2000545601</t>
+  </si>
+  <si>
+    <t>2000545604</t>
+  </si>
+  <si>
+    <t>557187338</t>
+  </si>
+  <si>
+    <t>xf9331226</t>
+  </si>
+  <si>
+    <t>2000545605</t>
+  </si>
+  <si>
+    <t>2000545606</t>
+  </si>
+  <si>
+    <t>2000545607</t>
+  </si>
+  <si>
+    <t>2000545608</t>
+  </si>
+  <si>
+    <t>2000545609</t>
+  </si>
+  <si>
+    <t>2000545610</t>
+  </si>
+  <si>
+    <t>2000545770</t>
+  </si>
+  <si>
+    <t>2000545774</t>
   </si>
   <si>
     <t>Failed</t>
   </si>
   <si>
-    <t>2021_10_29_04_48_34</t>
-  </si>
-  <si>
-    <t>2000505088</t>
-  </si>
-  <si>
-    <t>2000505089</t>
-  </si>
-  <si>
-    <t>2021_10_29_04_55_53</t>
-  </si>
-  <si>
-    <t>2021_10_29_04_58_17</t>
+    <t>2000545814</t>
+  </si>
+  <si>
+    <t>2022_07_19_02_51_12</t>
   </si>
 </sst>
 </file>
@@ -1526,7 +1544,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1548,6 +1566,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1602,7 +1632,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1717,6 +1747,13 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2038,26 +2075,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088699A3-39D2-44E6-8F71-47C2709580BF}">
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C25"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="5.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="93.44140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="8.109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="20.33203125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="93.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="32" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -2065,7 +2102,7 @@
         <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>53</v>
@@ -2086,7 +2123,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19">
         <v>1</v>
       </c>
@@ -2094,32 +2131,32 @@
         <v>58</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="19" t="s">
-        <v>445</v>
+      <c r="F2" s="63" t="s">
+        <v>426</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>450</v>
+        <v>421</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="I2" s="50" t="s">
-        <v>355</v>
+        <v>422</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="63" t="s">
         <v>59</v>
       </c>
       <c r="C3" s="19" t="s">
@@ -2128,25 +2165,25 @@
       <c r="D3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="19" t="s">
-        <v>389</v>
+      <c r="F3" s="63" t="s">
+        <v>426</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>390</v>
+        <v>421</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="I3" s="61"/>
     </row>
-    <row r="4" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="66" t="s">
         <v>61</v>
       </c>
       <c r="C4" s="19" t="s">
@@ -2159,17 +2196,17 @@
         <v>62</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>389</v>
+        <v>426</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>390</v>
+        <v>421</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="I4" s="19"/>
     </row>
-    <row r="5" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19">
         <v>4</v>
       </c>
@@ -2186,21 +2223,21 @@
         <v>62</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>389</v>
+        <v>426</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>390</v>
+        <v>421</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="I5" s="19"/>
     </row>
-    <row r="6" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19">
         <v>5</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="68" t="s">
         <v>71</v>
       </c>
       <c r="C6" s="19" t="s">
@@ -2209,23 +2246,23 @@
       <c r="D6" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="19" t="s">
-        <v>389</v>
+      <c r="F6" s="63" t="s">
+        <v>426</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>390</v>
+        <v>421</v>
       </c>
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
     </row>
-    <row r="7" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>6</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="66" t="s">
         <v>72</v>
       </c>
       <c r="C7" s="19" t="s">
@@ -2238,19 +2275,19 @@
         <v>62</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>389</v>
+        <v>426</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>390</v>
+        <v>421</v>
       </c>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
     </row>
-    <row r="8" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19">
         <v>7</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="66" t="s">
         <v>74</v>
       </c>
       <c r="C8" s="19" t="s">
@@ -2259,25 +2296,25 @@
       <c r="D8" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="63" t="s">
         <v>62</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>389</v>
+        <v>426</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>390</v>
+        <v>421</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="I8" s="19"/>
     </row>
-    <row r="9" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19">
         <v>8</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="66" t="s">
         <v>75</v>
       </c>
       <c r="C9" s="19" t="s">
@@ -2286,19 +2323,19 @@
       <c r="D9" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="F9" s="19" t="s">
-        <v>389</v>
+      <c r="F9" s="63" t="s">
+        <v>426</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>390</v>
+        <v>421</v>
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
     </row>
-    <row r="10" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19">
         <v>9</v>
       </c>
@@ -2311,21 +2348,21 @@
       <c r="D10" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="19" t="s">
-        <v>389</v>
+      <c r="F10" s="63" t="s">
+        <v>426</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>390</v>
+        <v>421</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="I10" s="19"/>
     </row>
-    <row r="11" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19">
         <v>10</v>
       </c>
@@ -2338,21 +2375,21 @@
       <c r="D11" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="19" t="s">
-        <v>389</v>
+      <c r="F11" s="63" t="s">
+        <v>426</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>390</v>
+        <v>421</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="I11" s="19"/>
     </row>
-    <row r="12" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19">
         <v>11</v>
       </c>
@@ -2365,21 +2402,21 @@
       <c r="D12" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="19" t="s">
-        <v>389</v>
+      <c r="F12" s="63" t="s">
+        <v>426</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>390</v>
+        <v>421</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="I12" s="19"/>
     </row>
-    <row r="13" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19">
         <v>12</v>
       </c>
@@ -2392,24 +2429,24 @@
       <c r="D13" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="19" t="s">
-        <v>389</v>
+      <c r="F13" s="63" t="s">
+        <v>426</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>390</v>
+        <v>421</v>
       </c>
       <c r="H13" s="19"/>
       <c r="I13" s="19"/>
     </row>
-    <row r="14" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19">
         <v>13</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C14" s="19" t="s">
         <v>57</v>
@@ -2417,23 +2454,23 @@
       <c r="D14" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="19" t="s">
-        <v>389</v>
+      <c r="F14" s="63" t="s">
+        <v>426</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>390</v>
+        <v>421</v>
       </c>
       <c r="H14" s="19"/>
       <c r="I14" s="19"/>
     </row>
-    <row r="15" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19">
         <v>14</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="67" t="s">
         <v>91</v>
       </c>
       <c r="C15" s="19" t="s">
@@ -2442,21 +2479,21 @@
       <c r="D15" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="19" t="s">
-        <v>389</v>
+      <c r="F15" s="63" t="s">
+        <v>426</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>390</v>
+        <v>421</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="I15" s="19"/>
     </row>
-    <row r="16" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19">
         <v>15</v>
       </c>
@@ -2469,21 +2506,21 @@
       <c r="D16" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="F16" s="19" t="s">
-        <v>389</v>
+      <c r="F16" s="63" t="s">
+        <v>426</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>390</v>
+        <v>421</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="I16" s="19"/>
     </row>
-    <row r="17" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19">
         <v>16</v>
       </c>
@@ -2500,19 +2537,19 @@
         <v>110</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>389</v>
+        <v>426</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>390</v>
+        <v>421</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
     </row>
-    <row r="18" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
         <v>17</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="66" t="s">
         <v>101</v>
       </c>
       <c r="C18" s="19" t="s">
@@ -2521,23 +2558,23 @@
       <c r="D18" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="63" t="s">
         <v>110</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>389</v>
+        <v>426</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>390</v>
+        <v>421</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
     </row>
-    <row r="19" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
         <v>18</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="66" t="s">
         <v>109</v>
       </c>
       <c r="C19" s="19" t="s">
@@ -2550,20 +2587,20 @@
         <v>110</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>389</v>
+        <v>426</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>390</v>
+        <v>421</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
     </row>
-    <row r="20" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
         <v>19</v>
       </c>
-      <c r="B20" s="19" t="s">
-        <v>367</v>
+      <c r="B20" s="66" t="s">
+        <v>364</v>
       </c>
       <c r="C20" s="19" t="s">
         <v>57</v>
@@ -2571,24 +2608,24 @@
       <c r="D20" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="63" t="s">
         <v>62</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>389</v>
+        <v>426</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>390</v>
+        <v>421</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
     </row>
-    <row r="21" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
         <v>20</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C21" s="19" t="s">
         <v>57</v>
@@ -2596,25 +2633,25 @@
       <c r="D21" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="63" t="s">
         <v>62</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>389</v>
+        <v>426</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>390</v>
+        <v>421</v>
       </c>
       <c r="H21" s="19" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="I21" s="19"/>
     </row>
-    <row r="22" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
         <v>21</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="66" t="s">
         <v>259</v>
       </c>
       <c r="C22" s="19" t="s">
@@ -2627,21 +2664,21 @@
         <v>62</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>389</v>
+        <v>426</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>390</v>
+        <v>421</v>
       </c>
       <c r="H22" s="19" t="s">
-        <v>416</v>
+        <v>446</v>
       </c>
       <c r="I22" s="19"/>
     </row>
-    <row r="23" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19">
         <v>22</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="66" t="s">
         <v>258</v>
       </c>
       <c r="C23" s="19" t="s">
@@ -2654,21 +2691,21 @@
         <v>62</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>389</v>
+        <v>426</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>390</v>
+        <v>421</v>
       </c>
       <c r="H23" s="19" t="s">
-        <v>417</v>
+        <v>447</v>
       </c>
       <c r="I23" s="19"/>
     </row>
-    <row r="24" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19">
         <v>23</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="66" t="s">
         <v>248</v>
       </c>
       <c r="C24" s="19" t="s">
@@ -2681,21 +2718,21 @@
         <v>62</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>389</v>
+        <v>426</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>390</v>
+        <v>421</v>
       </c>
       <c r="H24" s="19" t="s">
-        <v>418</v>
+        <v>448</v>
       </c>
       <c r="I24" s="19"/>
     </row>
-    <row r="25" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="19">
         <v>24</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="66" t="s">
         <v>260</v>
       </c>
       <c r="C25" s="19" t="s">
@@ -2708,21 +2745,21 @@
         <v>62</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>389</v>
+        <v>426</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>390</v>
+        <v>421</v>
       </c>
       <c r="H25" s="19" t="s">
-        <v>419</v>
+        <v>449</v>
       </c>
       <c r="I25" s="19"/>
     </row>
-    <row r="26" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="19">
         <v>25</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="66" t="s">
         <v>261</v>
       </c>
       <c r="C26" s="19" t="s">
@@ -2735,21 +2772,21 @@
         <v>62</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>389</v>
+        <v>426</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>390</v>
+        <v>421</v>
       </c>
       <c r="H26" s="19" t="s">
-        <v>420</v>
+        <v>450</v>
       </c>
       <c r="I26" s="19"/>
     </row>
-    <row r="27" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="19">
         <v>26</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="66" t="s">
         <v>262</v>
       </c>
       <c r="C27" s="19" t="s">
@@ -2762,21 +2799,21 @@
         <v>62</v>
       </c>
       <c r="F27" s="19" t="s">
-        <v>389</v>
+        <v>426</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>390</v>
+        <v>421</v>
       </c>
       <c r="H27" s="19" t="s">
-        <v>421</v>
+        <v>451</v>
       </c>
       <c r="I27" s="19"/>
     </row>
-    <row r="28" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="19">
         <v>27</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="66" t="s">
         <v>266</v>
       </c>
       <c r="C28" s="19" t="s">
@@ -2785,24 +2822,26 @@
       <c r="D28" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="E28" s="68" t="s">
         <v>62</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>389</v>
+        <v>426</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>390</v>
-      </c>
-      <c r="H28" s="19"/>
+        <v>421</v>
+      </c>
+      <c r="H28" s="65" t="s">
+        <v>453</v>
+      </c>
       <c r="I28" s="19"/>
     </row>
-    <row r="29" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="19">
         <v>28</v>
       </c>
-      <c r="B29" s="19" t="s">
-        <v>296</v>
+      <c r="B29" s="66" t="s">
+        <v>295</v>
       </c>
       <c r="C29" s="19" t="s">
         <v>57</v>
@@ -2810,49 +2849,51 @@
       <c r="D29" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="E29" s="68" t="s">
         <v>62</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>389</v>
+        <v>426</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>390</v>
+        <v>421</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
     </row>
-    <row r="30" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="21">
+    <row r="30" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="19">
         <v>29</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="66" t="s">
+        <v>413</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>456</v>
+      </c>
+      <c r="H30" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="I30" s="19"/>
+    </row>
+    <row r="31" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="19">
+        <v>30</v>
+      </c>
+      <c r="B31" s="21" t="s">
         <v>51</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="F30" s="21" t="s">
-        <v>389</v>
-      </c>
-      <c r="G30" s="21" t="s">
-        <v>390</v>
-      </c>
-      <c r="H30" s="21"/>
-      <c r="I30" s="22"/>
-    </row>
-    <row r="31" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="21">
-        <v>30</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>127</v>
       </c>
       <c r="C31" s="19" t="s">
         <v>57</v>
@@ -2864,20 +2905,20 @@
         <v>62</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>389</v>
+        <v>426</v>
       </c>
       <c r="G31" s="21" t="s">
-        <v>390</v>
+        <v>421</v>
       </c>
       <c r="H31" s="21"/>
       <c r="I31" s="22"/>
     </row>
-    <row r="32" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="21">
+    <row r="32" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="19">
         <v>31</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C32" s="19" t="s">
         <v>57</v>
@@ -2888,21 +2929,21 @@
       <c r="E32" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="F32" s="21" t="s">
-        <v>389</v>
+      <c r="F32" s="63" t="s">
+        <v>426</v>
       </c>
       <c r="G32" s="21" t="s">
-        <v>390</v>
+        <v>421</v>
       </c>
       <c r="H32" s="21"/>
       <c r="I32" s="22"/>
     </row>
-    <row r="33" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="21">
+    <row r="33" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="19">
         <v>32</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C33" s="19" t="s">
         <v>57</v>
@@ -2914,20 +2955,20 @@
         <v>62</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>389</v>
+        <v>426</v>
       </c>
       <c r="G33" s="21" t="s">
-        <v>390</v>
+        <v>421</v>
       </c>
       <c r="H33" s="21"/>
       <c r="I33" s="22"/>
     </row>
-    <row r="34" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="21">
+    <row r="34" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="19">
         <v>33</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C34" s="19" t="s">
         <v>57</v>
@@ -2938,21 +2979,21 @@
       <c r="E34" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="F34" s="21" t="s">
-        <v>389</v>
+      <c r="F34" s="63" t="s">
+        <v>426</v>
       </c>
       <c r="G34" s="21" t="s">
-        <v>390</v>
+        <v>421</v>
       </c>
       <c r="H34" s="21"/>
       <c r="I34" s="22"/>
     </row>
-    <row r="35" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="21">
+    <row r="35" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="19">
         <v>34</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C35" s="19" t="s">
         <v>57</v>
@@ -2963,21 +3004,21 @@
       <c r="E35" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="F35" s="21" t="s">
-        <v>389</v>
+      <c r="F35" s="63" t="s">
+        <v>426</v>
       </c>
       <c r="G35" s="21" t="s">
-        <v>390</v>
+        <v>421</v>
       </c>
       <c r="H35" s="21"/>
       <c r="I35" s="22"/>
     </row>
-    <row r="36" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="21">
+    <row r="36" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="19">
         <v>35</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C36" s="19" t="s">
         <v>57</v>
@@ -2989,20 +3030,20 @@
         <v>62</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>389</v>
+        <v>426</v>
       </c>
       <c r="G36" s="21" t="s">
-        <v>390</v>
+        <v>421</v>
       </c>
       <c r="H36" s="21"/>
       <c r="I36" s="22"/>
     </row>
-    <row r="37" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="21">
+    <row r="37" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="19">
         <v>36</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C37" s="19" t="s">
         <v>57</v>
@@ -3014,20 +3055,20 @@
         <v>62</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>389</v>
+        <v>426</v>
       </c>
       <c r="G37" s="21" t="s">
-        <v>390</v>
+        <v>421</v>
       </c>
       <c r="H37" s="21"/>
       <c r="I37" s="22"/>
     </row>
-    <row r="38" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="21">
+    <row r="38" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="19">
         <v>37</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C38" s="19" t="s">
         <v>57</v>
@@ -3039,20 +3080,20 @@
         <v>62</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>389</v>
+        <v>426</v>
       </c>
       <c r="G38" s="21" t="s">
-        <v>390</v>
+        <v>421</v>
       </c>
       <c r="H38" s="21"/>
       <c r="I38" s="22"/>
     </row>
-    <row r="39" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="21">
+    <row r="39" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="19">
         <v>38</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C39" s="19" t="s">
         <v>57</v>
@@ -3064,20 +3105,20 @@
         <v>62</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>389</v>
+        <v>426</v>
       </c>
       <c r="G39" s="21" t="s">
-        <v>390</v>
+        <v>421</v>
       </c>
       <c r="H39" s="21"/>
       <c r="I39" s="22"/>
     </row>
-    <row r="40" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="21">
+    <row r="40" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="19">
         <v>39</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C40" s="19" t="s">
         <v>57</v>
@@ -3089,20 +3130,20 @@
         <v>62</v>
       </c>
       <c r="F40" s="21" t="s">
-        <v>389</v>
+        <v>426</v>
       </c>
       <c r="G40" s="21" t="s">
-        <v>390</v>
+        <v>421</v>
       </c>
       <c r="H40" s="21"/>
       <c r="I40" s="22"/>
     </row>
-    <row r="41" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="21">
+    <row r="41" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="19">
         <v>40</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C41" s="19" t="s">
         <v>57</v>
@@ -3114,20 +3155,20 @@
         <v>62</v>
       </c>
       <c r="F41" s="21" t="s">
-        <v>389</v>
+        <v>426</v>
       </c>
       <c r="G41" s="21" t="s">
-        <v>390</v>
+        <v>421</v>
       </c>
       <c r="H41" s="21"/>
       <c r="I41" s="22"/>
     </row>
-    <row r="42" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="21">
+    <row r="42" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="19">
         <v>41</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C42" s="19" t="s">
         <v>57</v>
@@ -3139,20 +3180,20 @@
         <v>62</v>
       </c>
       <c r="F42" s="21" t="s">
-        <v>389</v>
+        <v>426</v>
       </c>
       <c r="G42" s="21" t="s">
-        <v>390</v>
+        <v>421</v>
       </c>
       <c r="H42" s="21"/>
       <c r="I42" s="22"/>
     </row>
-    <row r="43" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="21">
+    <row r="43" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="19">
         <v>42</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>380</v>
+        <v>183</v>
       </c>
       <c r="C43" s="19" t="s">
         <v>57</v>
@@ -3164,20 +3205,20 @@
         <v>62</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>389</v>
+        <v>426</v>
       </c>
       <c r="G43" s="21" t="s">
-        <v>390</v>
+        <v>421</v>
       </c>
       <c r="H43" s="21"/>
       <c r="I43" s="22"/>
     </row>
-    <row r="44" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="21">
+    <row r="44" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="19">
         <v>43</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>268</v>
+        <v>377</v>
       </c>
       <c r="C44" s="19" t="s">
         <v>57</v>
@@ -3189,262 +3230,287 @@
         <v>62</v>
       </c>
       <c r="F44" s="21" t="s">
-        <v>389</v>
+        <v>426</v>
       </c>
       <c r="G44" s="21" t="s">
-        <v>390</v>
+        <v>421</v>
       </c>
       <c r="H44" s="21"/>
       <c r="I44" s="22"/>
     </row>
-    <row r="45" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="62">
+    <row r="45" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="19">
         <v>44</v>
       </c>
-      <c r="B45" s="62" t="s">
-        <v>308</v>
+      <c r="B45" s="21" t="s">
+        <v>268</v>
       </c>
       <c r="C45" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="D45" s="62" t="s">
+      <c r="D45" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E45" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F45" s="21" t="s">
+        <v>426</v>
+      </c>
+      <c r="G45" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="H45" s="21"/>
+      <c r="I45" s="22"/>
+    </row>
+    <row r="46" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="19">
+        <v>45</v>
+      </c>
+      <c r="B46" s="62" t="s">
+        <v>307</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D46" s="62" t="s">
+        <v>305</v>
+      </c>
+      <c r="E46" s="62" t="s">
         <v>306</v>
       </c>
-      <c r="E45" s="62" t="s">
-        <v>307</v>
-      </c>
-      <c r="F45" s="62" t="s">
-        <v>389</v>
-      </c>
-      <c r="G45" s="62" t="s">
-        <v>390</v>
-      </c>
-      <c r="H45" s="62" t="s">
-        <v>425</v>
-      </c>
-      <c r="I45" s="62"/>
-    </row>
-    <row r="46" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="62">
-        <v>45</v>
-      </c>
-      <c r="B46" s="62" t="s">
-        <v>312</v>
-      </c>
-      <c r="C46" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D46" s="62" t="s">
-        <v>306</v>
-      </c>
-      <c r="E46" s="62" t="s">
-        <v>307</v>
-      </c>
       <c r="F46" s="62" t="s">
-        <v>389</v>
+        <v>426</v>
       </c>
       <c r="G46" s="62" t="s">
-        <v>390</v>
+        <v>421</v>
       </c>
       <c r="H46" s="62" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="I46" s="62"/>
     </row>
-    <row r="47" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="62">
+    <row r="47" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="19">
         <v>46</v>
       </c>
       <c r="B47" s="62" t="s">
         <v>311</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D47" s="62" t="s">
+        <v>305</v>
+      </c>
+      <c r="E47" s="62" t="s">
         <v>306</v>
       </c>
-      <c r="E47" s="62" t="s">
-        <v>307</v>
-      </c>
       <c r="F47" s="62" t="s">
-        <v>389</v>
+        <v>426</v>
       </c>
       <c r="G47" s="62" t="s">
-        <v>390</v>
+        <v>421</v>
       </c>
       <c r="H47" s="62" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="I47" s="62"/>
     </row>
-    <row r="48" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="62">
+    <row r="48" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="19">
         <v>47</v>
       </c>
       <c r="B48" s="62" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D48" s="62" t="s">
+        <v>305</v>
+      </c>
+      <c r="E48" s="62" t="s">
         <v>306</v>
       </c>
-      <c r="E48" s="62" t="s">
-        <v>307</v>
-      </c>
       <c r="F48" s="62" t="s">
-        <v>389</v>
+        <v>426</v>
       </c>
       <c r="G48" s="62" t="s">
-        <v>390</v>
+        <v>421</v>
       </c>
       <c r="H48" s="62" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="I48" s="62"/>
     </row>
-    <row r="49" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="62">
+    <row r="49" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="19">
         <v>48</v>
       </c>
       <c r="B49" s="62" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D49" s="62" t="s">
+        <v>305</v>
+      </c>
+      <c r="E49" s="62" t="s">
         <v>306</v>
       </c>
-      <c r="E49" s="62" t="s">
-        <v>307</v>
-      </c>
       <c r="F49" s="62" t="s">
-        <v>389</v>
+        <v>426</v>
       </c>
       <c r="G49" s="62" t="s">
-        <v>390</v>
+        <v>421</v>
       </c>
       <c r="H49" s="62" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="I49" s="62"/>
     </row>
-    <row r="50" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="62">
+    <row r="50" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="19">
         <v>49</v>
       </c>
       <c r="B50" s="62" t="s">
         <v>335</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D50" s="62" t="s">
+        <v>305</v>
+      </c>
+      <c r="E50" s="62" t="s">
         <v>306</v>
       </c>
-      <c r="E50" s="62" t="s">
-        <v>307</v>
-      </c>
       <c r="F50" s="62" t="s">
-        <v>389</v>
+        <v>426</v>
       </c>
       <c r="G50" s="62" t="s">
-        <v>390</v>
-      </c>
-      <c r="H50" s="62"/>
+        <v>421</v>
+      </c>
+      <c r="H50" s="62" t="s">
+        <v>431</v>
+      </c>
       <c r="I50" s="62"/>
     </row>
-    <row r="51" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="62">
+    <row r="51" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="19">
         <v>50</v>
       </c>
       <c r="B51" s="62" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D51" s="62" t="s">
+        <v>305</v>
+      </c>
+      <c r="E51" s="62" t="s">
         <v>306</v>
       </c>
-      <c r="E51" s="62" t="s">
-        <v>307</v>
-      </c>
       <c r="F51" s="62" t="s">
-        <v>389</v>
+        <v>426</v>
       </c>
       <c r="G51" s="62" t="s">
-        <v>390</v>
+        <v>421</v>
       </c>
       <c r="H51" s="62"/>
       <c r="I51" s="62"/>
     </row>
-    <row r="52" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="62">
+    <row r="52" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="19">
         <v>51</v>
       </c>
       <c r="B52" s="62" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D52" s="62" t="s">
+        <v>305</v>
+      </c>
+      <c r="E52" s="62" t="s">
         <v>306</v>
       </c>
-      <c r="E52" s="62" t="s">
-        <v>307</v>
-      </c>
       <c r="F52" s="62" t="s">
-        <v>389</v>
+        <v>426</v>
       </c>
       <c r="G52" s="62" t="s">
-        <v>390</v>
-      </c>
-      <c r="H52" s="62" t="s">
-        <v>430</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="H52" s="62"/>
       <c r="I52" s="62"/>
     </row>
-    <row r="53" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="62">
+    <row r="53" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="19">
         <v>52</v>
       </c>
-      <c r="B53" s="63" t="s">
-        <v>343</v>
+      <c r="B53" s="62" t="s">
+        <v>341</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D53" s="62" t="s">
+        <v>305</v>
+      </c>
+      <c r="E53" s="62" t="s">
         <v>306</v>
       </c>
-      <c r="E53" s="62" t="s">
-        <v>307</v>
-      </c>
       <c r="F53" s="62" t="s">
-        <v>389</v>
+        <v>426</v>
       </c>
       <c r="G53" s="62" t="s">
-        <v>390</v>
+        <v>421</v>
       </c>
       <c r="H53" s="62" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="I53" s="62"/>
     </row>
+    <row r="54" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="19">
+        <v>53</v>
+      </c>
+      <c r="B54" s="63" t="s">
+        <v>342</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D54" s="62" t="s">
+        <v>305</v>
+      </c>
+      <c r="E54" s="62" t="s">
+        <v>306</v>
+      </c>
+      <c r="F54" s="62" t="s">
+        <v>426</v>
+      </c>
+      <c r="G54" s="62" t="s">
+        <v>421</v>
+      </c>
+      <c r="H54" s="62" t="s">
+        <v>433</v>
+      </c>
+      <c r="I54" s="62"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I53" xr:uid="{82E42E5A-9B39-4AEF-85C9-780A007CE908}"/>
+  <autoFilter ref="A1:I54" xr:uid="{088699A3-39D2-44E6-8F71-47C2709580BF}"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C53" xr:uid="{8A698568-7FFB-4AF9-B5EF-DFF4FBACDD2D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C54" xr:uid="{8A698568-7FFB-4AF9-B5EF-DFF4FBACDD2D}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{1B330AB7-A328-42B1-9088-FD495E692864}"/>
+    <hyperlink ref="I2" r:id="rId1" location="7815483" xr:uid="{1B330AB7-A328-42B1-9088-FD495E692864}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -3453,101 +3519,101 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9856292-E718-4F44-A2EB-03A51CA4C0E1}">
-  <dimension ref="A1:DB29"/>
+  <dimension ref="A1:DC31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="5.109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="102.33203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="14.5546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="3" width="10.109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="3" width="11.88671875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="3" width="12.88671875" collapsed="true"/>
-    <col min="7" max="8" customWidth="true" style="3" width="12.88671875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="3" width="69.109375" collapsed="true"/>
-    <col min="10" max="11" customWidth="true" style="3" width="36.5546875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="3" width="20.6640625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="3" width="20.0" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="3" width="15.44140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="3" width="16.6640625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="3" width="12.6640625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="3" width="14.6640625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="3" width="20.109375" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="3" width="21.6640625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="3" width="27.109375" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="3" width="18.5546875" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="3" width="10.44140625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="3" width="4.44140625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="3" width="8.0" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="3" width="7.33203125" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="3" width="8.33203125" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="3" width="12.109375" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="3" width="19.88671875" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="3" width="24.109375" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" style="3" width="24.109375" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="3" width="9.88671875" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="3" width="17.88671875" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="3" width="22.109375" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="3" width="9.5546875" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="3" width="21.88671875" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="3" width="26.33203125" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" style="3" width="30.44140625" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" style="3" width="23.33203125" collapsed="true"/>
-    <col min="39" max="41" customWidth="true" style="3" width="23.33203125" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" style="3" width="7.33203125" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" style="3" width="22.33203125" collapsed="true"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" style="3" width="24.5546875" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" style="3" width="8.88671875" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" style="3" width="16.6640625" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" style="3" width="6.0" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" style="3" width="20.5546875" collapsed="true"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" style="3" width="20.33203125" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" style="3" width="26.44140625" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" style="3" width="24.33203125" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" style="3" width="27.0" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" style="3" width="25.0" collapsed="true"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" style="3" width="29.0" collapsed="true"/>
-    <col min="55" max="56" bestFit="true" customWidth="true" style="3" width="15.109375" collapsed="true"/>
-    <col min="57" max="57" bestFit="true" customWidth="true" style="3" width="25.5546875" collapsed="true"/>
-    <col min="58" max="58" bestFit="true" customWidth="true" style="3" width="15.6640625" collapsed="true"/>
-    <col min="59" max="59" bestFit="true" customWidth="true" style="3" width="17.88671875" collapsed="true"/>
-    <col min="60" max="60" bestFit="true" customWidth="true" style="3" width="14.5546875" collapsed="true"/>
-    <col min="61" max="61" bestFit="true" customWidth="true" style="3" width="11.88671875" collapsed="true"/>
-    <col min="62" max="62" bestFit="true" customWidth="true" style="3" width="17.33203125" collapsed="true"/>
-    <col min="63" max="63" bestFit="true" customWidth="true" style="3" width="12.6640625" collapsed="true"/>
-    <col min="64" max="64" bestFit="true" customWidth="true" style="3" width="15.33203125" collapsed="true"/>
-    <col min="65" max="65" bestFit="true" customWidth="true" style="3" width="19.88671875" collapsed="true"/>
-    <col min="66" max="66" bestFit="true" customWidth="true" style="3" width="19.44140625" collapsed="true"/>
-    <col min="67" max="67" bestFit="true" customWidth="true" style="3" width="14.44140625" collapsed="true"/>
-    <col min="68" max="68" bestFit="true" customWidth="true" style="3" width="14.6640625" collapsed="true"/>
-    <col min="69" max="69" bestFit="true" customWidth="true" style="3" width="10.6640625" collapsed="true"/>
-    <col min="70" max="70" bestFit="true" customWidth="true" style="3" width="19.44140625" collapsed="true"/>
-    <col min="71" max="71" bestFit="true" customWidth="true" style="3" width="12.33203125" collapsed="true"/>
-    <col min="72" max="72" bestFit="true" customWidth="true" style="3" width="9.33203125" collapsed="true"/>
-    <col min="73" max="73" bestFit="true" customWidth="true" style="3" width="14.109375" collapsed="true"/>
-    <col min="74" max="74" bestFit="true" customWidth="true" style="3" width="32.0" collapsed="true"/>
-    <col min="75" max="75" bestFit="true" customWidth="true" style="3" width="16.33203125" collapsed="true"/>
-    <col min="76" max="82" style="3" width="9.109375" collapsed="true"/>
-    <col min="83" max="83" bestFit="true" customWidth="true" style="3" width="10.0" collapsed="true"/>
-    <col min="84" max="95" style="3" width="9.109375" collapsed="true"/>
-    <col min="96" max="96" customWidth="true" style="3" width="28.33203125" collapsed="true"/>
-    <col min="97" max="97" bestFit="true" customWidth="true" style="3" width="22.109375" collapsed="true"/>
-    <col min="98" max="98" bestFit="true" customWidth="true" style="3" width="26.109375" collapsed="true"/>
-    <col min="99" max="99" customWidth="true" style="3" width="26.109375" collapsed="true"/>
-    <col min="100" max="100" bestFit="true" customWidth="true" style="3" width="12.6640625" collapsed="true"/>
-    <col min="101" max="101" customWidth="true" style="3" width="12.6640625" collapsed="true"/>
-    <col min="102" max="102" bestFit="true" customWidth="true" style="3" width="22.88671875" collapsed="true"/>
-    <col min="103" max="103" bestFit="true" customWidth="true" style="3" width="18.109375" collapsed="true"/>
-    <col min="104" max="104" customWidth="true" style="3" width="18.109375" collapsed="true"/>
-    <col min="105" max="105" bestFit="true" customWidth="true" style="3" width="18.21875" collapsed="true"/>
-    <col min="106" max="16384" style="3" width="9.109375" collapsed="true"/>
+    <col min="1" max="1" width="5.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="102.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="12.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="69.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="11" width="36.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="20.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="20" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="15.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="16.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="14.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="20.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="21.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="27.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="18.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="10.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="4.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="8" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="7.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="8.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="12.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="19.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="24.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="24.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="9.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="17.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="22.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="9.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="21.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="26.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="30.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="23.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="41" width="23.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="7.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="22.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="24.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="8.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="16.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="6" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="20.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="20.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="26.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="24.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="27" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="25" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="29" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="55" max="56" width="15.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="57" max="57" width="25.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="58" max="58" width="15.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="59" max="59" width="17.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="14.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="61" max="61" width="11.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="62" max="62" width="17.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="63" max="63" width="12.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="64" max="64" width="15.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="65" max="65" width="19.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="66" max="66" width="19.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="67" max="67" width="14.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="68" max="68" width="14.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="69" max="69" width="10.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="70" max="70" width="19.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="71" max="71" width="12.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="72" max="72" width="9.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="73" max="73" width="14.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="74" max="74" width="32" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="75" max="75" width="16.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="76" max="82" width="9.140625" style="3" collapsed="1"/>
+    <col min="83" max="83" width="10" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="84" max="95" width="9.140625" style="3" collapsed="1"/>
+    <col min="96" max="96" width="28.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="97" max="97" width="22.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="98" max="98" width="26.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="99" max="99" width="26.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="100" max="100" width="12.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="101" max="101" width="12.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="102" max="102" width="22.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="103" max="103" width="18.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="104" max="104" width="18.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="105" max="105" width="18.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="106" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>34</v>
       </c>
@@ -3567,19 +3633,19 @@
         <v>191</v>
       </c>
       <c r="G1" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>298</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>299</v>
       </c>
       <c r="I1" s="23" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="23" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L1" s="9" t="s">
         <v>192</v>
@@ -3636,7 +3702,7 @@
         <v>12</v>
       </c>
       <c r="AD1" s="24" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="AE1" s="24" t="s">
         <v>13</v>
@@ -3663,13 +3729,13 @@
         <v>29</v>
       </c>
       <c r="AM1" s="24" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="AN1" s="24" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="AO1" s="24" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="AP1" s="13" t="s">
         <v>76</v>
@@ -3693,7 +3759,7 @@
         <v>87</v>
       </c>
       <c r="AW1" s="24" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="AX1" s="24" t="s">
         <v>88</v>
@@ -3843,31 +3909,34 @@
         <v>253</v>
       </c>
       <c r="CU1" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="CV1" s="4" t="s">
         <v>263</v>
       </c>
       <c r="CW1" s="4" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="CX1" s="4" t="s">
         <v>292</v>
       </c>
       <c r="CY1" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="CZ1" s="4" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="DA1" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="DB1" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
+      </c>
+      <c r="DC1" s="3" t="s">
+        <v>415</v>
       </c>
     </row>
-    <row r="2" spans="1:106" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:107" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="26">
         <v>1</v>
       </c>
@@ -3885,7 +3954,7 @@
       <c r="G2" s="26"/>
       <c r="H2" s="26"/>
       <c r="I2" s="26" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="J2" s="26"/>
       <c r="K2" s="26"/>
@@ -3894,7 +3963,7 @@
         <v>5</v>
       </c>
       <c r="N2" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O2" s="28" t="s">
         <v>287</v>
@@ -3923,23 +3992,25 @@
         <v>24</v>
       </c>
       <c r="AA2" s="29" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AB2" s="26" t="s">
         <v>30</v>
       </c>
       <c r="AC2" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AD2" s="27" t="s">
-        <v>348</v>
-      </c>
-      <c r="AE2" s="26"/>
+        <v>347</v>
+      </c>
+      <c r="AE2" s="26" t="s">
+        <v>99</v>
+      </c>
       <c r="AF2" s="26" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="AG2" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AH2" s="26"/>
       <c r="AI2" s="26" t="s">
@@ -3952,7 +4023,7 @@
         <v>37</v>
       </c>
       <c r="AL2" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AM2" s="27"/>
       <c r="AN2" s="27"/>
@@ -3972,16 +4043,16 @@
         <v>57</v>
       </c>
       <c r="AZ2" s="26" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="BA2" s="26" t="s">
         <v>57</v>
       </c>
       <c r="BB2" s="26" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="BC2" s="26" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="BD2" s="26" t="s">
         <v>57</v>
@@ -3989,7 +4060,7 @@
       <c r="BE2" s="26"/>
       <c r="BF2" s="26"/>
       <c r="BG2" s="26" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="BH2" s="26"/>
       <c r="BI2" s="26"/>
@@ -4029,28 +4100,28 @@
       <c r="CQ2" s="26"/>
       <c r="CR2" s="26"/>
       <c r="CS2" s="26" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CT2" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="CU2" s="27"/>
       <c r="CV2" s="26"/>
       <c r="CW2" s="26"/>
       <c r="CX2" s="26"/>
       <c r="CY2" s="26" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CZ2" s="26"/>
       <c r="DA2" s="26"/>
       <c r="DB2" s="26"/>
     </row>
-    <row r="3" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A3" s="26">
         <v>2</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>28</v>
@@ -4063,7 +4134,7 @@
       <c r="G3" s="31"/>
       <c r="H3" s="31"/>
       <c r="I3" s="31" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="J3" s="31"/>
       <c r="K3" s="31"/>
@@ -4072,10 +4143,10 @@
         <v>5</v>
       </c>
       <c r="N3" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O3" s="28" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="P3" s="31"/>
       <c r="Q3" s="31"/>
@@ -4101,23 +4172,23 @@
         <v>24</v>
       </c>
       <c r="AA3" s="29" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AB3" s="26" t="s">
         <v>30</v>
       </c>
       <c r="AC3" s="27" t="s">
-        <v>392</v>
+        <v>347</v>
       </c>
       <c r="AD3" s="27" t="s">
-        <v>392</v>
+        <v>347</v>
       </c>
       <c r="AE3" s="31"/>
       <c r="AF3" s="26" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="AG3" s="27" t="s">
-        <v>392</v>
+        <v>347</v>
       </c>
       <c r="AH3" s="31"/>
       <c r="AI3" s="26" t="s">
@@ -4130,7 +4201,7 @@
         <v>37</v>
       </c>
       <c r="AL3" s="27" t="s">
-        <v>392</v>
+        <v>347</v>
       </c>
       <c r="AM3" s="27" t="s">
         <v>77</v>
@@ -4139,7 +4210,7 @@
         <v>77</v>
       </c>
       <c r="AO3" s="27" t="s">
-        <v>392</v>
+        <v>347</v>
       </c>
       <c r="AP3" s="31"/>
       <c r="AQ3" s="31"/>
@@ -4150,10 +4221,10 @@
         <v>57</v>
       </c>
       <c r="AV3" s="32" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="AW3" s="26" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="AX3" s="31"/>
       <c r="AY3" s="31"/>
@@ -4165,7 +4236,7 @@
       <c r="BE3" s="31"/>
       <c r="BF3" s="31"/>
       <c r="BG3" s="26" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="BH3" s="31"/>
       <c r="BI3" s="31"/>
@@ -4205,13 +4276,13 @@
       <c r="CQ3" s="31"/>
       <c r="CR3" s="31"/>
       <c r="CS3" s="26" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CT3" s="27" t="s">
-        <v>392</v>
+        <v>347</v>
       </c>
       <c r="CU3" s="27" t="s">
-        <v>412</v>
+        <v>347</v>
       </c>
       <c r="CV3" s="28" t="s">
         <v>264</v>
@@ -4221,32 +4292,34 @@
       </c>
       <c r="CX3" s="31"/>
       <c r="CY3" s="26" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CZ3" s="26" t="s">
         <v>77</v>
       </c>
       <c r="DA3" s="27" t="s">
-        <v>391</v>
+        <v>347</v>
       </c>
       <c r="DB3" s="31" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
-    <row r="4" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A4" s="26">
         <v>3</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="34"/>
+      <c r="E4" s="34" t="s">
+        <v>425</v>
+      </c>
       <c r="F4" s="31"/>
       <c r="G4" s="31"/>
       <c r="H4" s="31"/>
@@ -4286,10 +4359,12 @@
       <c r="AB4" s="31"/>
       <c r="AC4" s="31"/>
       <c r="AD4" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AE4" s="31"/>
-      <c r="AF4" s="31"/>
+      <c r="AF4" s="26" t="s">
+        <v>412</v>
+      </c>
       <c r="AG4" s="31"/>
       <c r="AH4" s="31"/>
       <c r="AI4" s="31"/>
@@ -4319,7 +4394,7 @@
       <c r="BE4" s="31"/>
       <c r="BF4" s="31"/>
       <c r="BG4" s="26" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="BH4" s="26" t="s">
         <v>289</v>
@@ -4347,7 +4422,7 @@
         <v>238</v>
       </c>
       <c r="CA4" s="26" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="CB4" s="26"/>
       <c r="CC4" s="18" t="s">
@@ -4369,23 +4444,25 @@
       <c r="CQ4" s="31"/>
       <c r="CR4" s="31"/>
       <c r="CS4" s="26" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CT4" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="CU4" s="27"/>
       <c r="CV4" s="31"/>
       <c r="CW4" s="31"/>
-      <c r="CX4" s="31"/>
+      <c r="CX4" s="31" t="s">
+        <v>181</v>
+      </c>
       <c r="CY4" s="26" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CZ4" s="26"/>
       <c r="DA4" s="31"/>
       <c r="DB4" s="31"/>
     </row>
-    <row r="5" spans="1:106" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:107" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26">
         <v>4</v>
       </c>
@@ -4403,7 +4480,7 @@
       <c r="G5" s="26"/>
       <c r="H5" s="26"/>
       <c r="I5" s="26" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="J5" s="26"/>
       <c r="K5" s="26"/>
@@ -4412,7 +4489,7 @@
         <v>5</v>
       </c>
       <c r="N5" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O5" s="28" t="s">
         <v>287</v>
@@ -4441,25 +4518,25 @@
         <v>24</v>
       </c>
       <c r="AA5" s="29" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AB5" s="26" t="s">
         <v>30</v>
       </c>
       <c r="AC5" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AD5" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AE5" s="26" t="s">
         <v>99</v>
       </c>
       <c r="AF5" s="26" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="AG5" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AH5" s="26" t="s">
         <v>99</v>
@@ -4474,7 +4551,7 @@
         <v>37</v>
       </c>
       <c r="AL5" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AM5" s="27"/>
       <c r="AN5" s="27"/>
@@ -4494,26 +4571,26 @@
         <v>57</v>
       </c>
       <c r="AZ5" s="26" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="BA5" s="26" t="s">
         <v>57</v>
       </c>
       <c r="BB5" s="26" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="BC5" s="26" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="BD5" s="26" t="s">
         <v>57</v>
       </c>
       <c r="BE5" s="26"/>
       <c r="BF5" s="35" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="BG5" s="26" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="BH5" s="26"/>
       <c r="BI5" s="26"/>
@@ -4553,23 +4630,23 @@
       <c r="CQ5" s="26"/>
       <c r="CR5" s="26"/>
       <c r="CS5" s="26" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CT5" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="CU5" s="27"/>
       <c r="CV5" s="26"/>
       <c r="CW5" s="26"/>
       <c r="CX5" s="26"/>
       <c r="CY5" s="26" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CZ5" s="26"/>
       <c r="DA5" s="26"/>
       <c r="DB5" s="26"/>
     </row>
-    <row r="6" spans="1:106" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:107" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="26">
         <v>5</v>
       </c>
@@ -4587,7 +4664,7 @@
       <c r="G6" s="26"/>
       <c r="H6" s="26"/>
       <c r="I6" s="26" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="J6" s="26"/>
       <c r="K6" s="26"/>
@@ -4596,7 +4673,7 @@
         <v>5</v>
       </c>
       <c r="N6" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O6" s="28" t="s">
         <v>287</v>
@@ -4625,25 +4702,25 @@
         <v>24</v>
       </c>
       <c r="AA6" s="29" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AB6" s="26" t="s">
         <v>30</v>
       </c>
       <c r="AC6" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AD6" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AE6" s="26" t="s">
         <v>99</v>
       </c>
       <c r="AF6" s="26" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="AG6" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AH6" s="26" t="s">
         <v>99</v>
@@ -4658,7 +4735,7 @@
         <v>37</v>
       </c>
       <c r="AL6" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AM6" s="27"/>
       <c r="AN6" s="27"/>
@@ -4678,26 +4755,26 @@
         <v>57</v>
       </c>
       <c r="AZ6" s="26" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="BA6" s="26" t="s">
         <v>57</v>
       </c>
       <c r="BB6" s="26" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="BC6" s="26" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="BD6" s="26" t="s">
         <v>57</v>
       </c>
       <c r="BE6" s="26"/>
       <c r="BF6" s="26" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="BG6" s="26" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="BH6" s="26"/>
       <c r="BI6" s="26"/>
@@ -4737,23 +4814,23 @@
       <c r="CQ6" s="26"/>
       <c r="CR6" s="26"/>
       <c r="CS6" s="26" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CT6" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="CU6" s="27"/>
       <c r="CV6" s="26"/>
       <c r="CW6" s="26"/>
       <c r="CX6" s="26"/>
       <c r="CY6" s="26" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CZ6" s="26"/>
       <c r="DA6" s="26"/>
       <c r="DB6" s="26"/>
     </row>
-    <row r="7" spans="1:106" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:107" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="26">
         <v>6</v>
       </c>
@@ -4771,7 +4848,7 @@
       <c r="G7" s="26"/>
       <c r="H7" s="26"/>
       <c r="I7" s="26" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="J7" s="26"/>
       <c r="K7" s="26"/>
@@ -4780,7 +4857,7 @@
         <v>5</v>
       </c>
       <c r="N7" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O7" s="28" t="s">
         <v>287</v>
@@ -4807,23 +4884,23 @@
         <v>24</v>
       </c>
       <c r="AA7" s="29" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AB7" s="26" t="s">
         <v>30</v>
       </c>
       <c r="AC7" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AD7" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AE7" s="26"/>
       <c r="AF7" s="26" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="AG7" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AH7" s="26"/>
       <c r="AI7" s="26" t="s">
@@ -4836,7 +4913,7 @@
         <v>37</v>
       </c>
       <c r="AL7" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AM7" s="27"/>
       <c r="AN7" s="27"/>
@@ -4856,16 +4933,16 @@
         <v>57</v>
       </c>
       <c r="AZ7" s="26" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="BA7" s="26" t="s">
         <v>57</v>
       </c>
       <c r="BB7" s="26" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="BC7" s="26" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="BD7" s="26" t="s">
         <v>57</v>
@@ -4873,7 +4950,7 @@
       <c r="BE7" s="26"/>
       <c r="BF7" s="26"/>
       <c r="BG7" s="26" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="BH7" s="26"/>
       <c r="BI7" s="26"/>
@@ -4913,23 +4990,23 @@
       <c r="CQ7" s="26"/>
       <c r="CR7" s="26"/>
       <c r="CS7" s="26" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CT7" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="CU7" s="27"/>
       <c r="CV7" s="26"/>
       <c r="CW7" s="26"/>
       <c r="CX7" s="26"/>
       <c r="CY7" s="26" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CZ7" s="26"/>
       <c r="DA7" s="26"/>
       <c r="DB7" s="26"/>
     </row>
-    <row r="8" spans="1:106" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:107" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33">
         <v>7</v>
       </c>
@@ -4947,7 +5024,7 @@
       <c r="G8" s="33"/>
       <c r="H8" s="33"/>
       <c r="I8" s="33" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="J8" s="33"/>
       <c r="K8" s="33"/>
@@ -4956,7 +5033,7 @@
         <v>5</v>
       </c>
       <c r="N8" s="36" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O8" s="37" t="s">
         <v>287</v>
@@ -4985,23 +5062,23 @@
         <v>24</v>
       </c>
       <c r="AA8" s="38" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AB8" s="33" t="s">
         <v>30</v>
       </c>
       <c r="AC8" s="36" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AD8" s="36" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AE8" s="33"/>
       <c r="AF8" s="26" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="AG8" s="36" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AH8" s="33"/>
       <c r="AI8" s="33" t="s">
@@ -5014,7 +5091,7 @@
         <v>37</v>
       </c>
       <c r="AL8" s="36" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AM8" s="36"/>
       <c r="AN8" s="36"/>
@@ -5034,16 +5111,16 @@
         <v>57</v>
       </c>
       <c r="AZ8" s="33" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="BA8" s="33" t="s">
         <v>57</v>
       </c>
       <c r="BB8" s="33" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="BC8" s="33" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="BD8" s="33" t="s">
         <v>57</v>
@@ -5051,7 +5128,7 @@
       <c r="BE8" s="33"/>
       <c r="BF8" s="33"/>
       <c r="BG8" s="33" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="BH8" s="33"/>
       <c r="BI8" s="33"/>
@@ -5091,23 +5168,23 @@
       <c r="CQ8" s="33"/>
       <c r="CR8" s="33"/>
       <c r="CS8" s="33" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CT8" s="36" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="CU8" s="36"/>
       <c r="CV8" s="33"/>
       <c r="CW8" s="33"/>
       <c r="CX8" s="33"/>
       <c r="CY8" s="33" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CZ8" s="33"/>
       <c r="DA8" s="33"/>
       <c r="DB8" s="33"/>
     </row>
-    <row r="9" spans="1:106" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:107" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33">
         <v>8</v>
       </c>
@@ -5125,7 +5202,7 @@
       <c r="G9" s="33"/>
       <c r="H9" s="33"/>
       <c r="I9" s="33" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="J9" s="33"/>
       <c r="K9" s="33"/>
@@ -5134,10 +5211,10 @@
         <v>5</v>
       </c>
       <c r="N9" s="36" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O9" s="37" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="P9" s="33"/>
       <c r="Q9" s="33"/>
@@ -5161,23 +5238,23 @@
         <v>24</v>
       </c>
       <c r="AA9" s="38" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AB9" s="33" t="s">
         <v>30</v>
       </c>
       <c r="AC9" s="36" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AD9" s="36" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AE9" s="33"/>
       <c r="AF9" s="26" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="AG9" s="36" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AH9" s="33"/>
       <c r="AI9" s="33" t="s">
@@ -5190,7 +5267,7 @@
         <v>37</v>
       </c>
       <c r="AL9" s="36" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AM9" s="36"/>
       <c r="AN9" s="36"/>
@@ -5210,16 +5287,16 @@
         <v>57</v>
       </c>
       <c r="AZ9" s="33" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="BA9" s="33" t="s">
         <v>57</v>
       </c>
       <c r="BB9" s="33" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="BC9" s="33" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="BD9" s="33" t="s">
         <v>57</v>
@@ -5227,7 +5304,7 @@
       <c r="BE9" s="33"/>
       <c r="BF9" s="33"/>
       <c r="BG9" s="33" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="BH9" s="33"/>
       <c r="BI9" s="33"/>
@@ -5267,23 +5344,23 @@
       <c r="CQ9" s="33"/>
       <c r="CR9" s="33"/>
       <c r="CS9" s="33" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CT9" s="36" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="CU9" s="36"/>
       <c r="CV9" s="33"/>
       <c r="CW9" s="33"/>
       <c r="CX9" s="33"/>
       <c r="CY9" s="33" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CZ9" s="33"/>
       <c r="DA9" s="33"/>
       <c r="DB9" s="33"/>
     </row>
-    <row r="10" spans="1:106" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:107" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="26">
         <v>9</v>
       </c>
@@ -5301,7 +5378,7 @@
       <c r="G10" s="26"/>
       <c r="H10" s="26"/>
       <c r="I10" s="26" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="J10" s="26"/>
       <c r="K10" s="26"/>
@@ -5310,7 +5387,7 @@
         <v>5</v>
       </c>
       <c r="N10" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O10" s="28" t="s">
         <v>287</v>
@@ -5344,14 +5421,14 @@
       </c>
       <c r="AC10" s="26"/>
       <c r="AD10" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AE10" s="26"/>
       <c r="AF10" s="26" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="AG10" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AH10" s="26"/>
       <c r="AI10" s="26" t="s">
@@ -5364,7 +5441,7 @@
         <v>37</v>
       </c>
       <c r="AL10" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AM10" s="27"/>
       <c r="AN10" s="27"/>
@@ -5382,13 +5459,13 @@
         <v>79</v>
       </c>
       <c r="AT10" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AU10" s="26" t="s">
         <v>56</v>
       </c>
       <c r="AV10" s="39" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="AW10" s="26" t="s">
         <v>86</v>
@@ -5413,7 +5490,7 @@
       </c>
       <c r="BF10" s="26"/>
       <c r="BG10" s="26" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="BH10" s="26"/>
       <c r="BI10" s="26"/>
@@ -5453,23 +5530,23 @@
       <c r="CQ10" s="26"/>
       <c r="CR10" s="26"/>
       <c r="CS10" s="26" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CT10" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="CU10" s="27"/>
       <c r="CV10" s="26"/>
       <c r="CW10" s="26"/>
       <c r="CX10" s="26"/>
       <c r="CY10" s="26" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CZ10" s="26"/>
       <c r="DA10" s="26"/>
       <c r="DB10" s="26"/>
     </row>
-    <row r="11" spans="1:106" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:107" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="26">
         <v>10</v>
       </c>
@@ -5487,7 +5564,7 @@
       <c r="G11" s="26"/>
       <c r="H11" s="26"/>
       <c r="I11" s="26" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="J11" s="26"/>
       <c r="K11" s="26"/>
@@ -5496,7 +5573,7 @@
         <v>5</v>
       </c>
       <c r="N11" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O11" s="28" t="s">
         <v>287</v>
@@ -5530,14 +5607,14 @@
       </c>
       <c r="AC11" s="26"/>
       <c r="AD11" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AE11" s="26"/>
       <c r="AF11" s="26" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="AG11" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AH11" s="26"/>
       <c r="AI11" s="26" t="s">
@@ -5550,7 +5627,7 @@
         <v>37</v>
       </c>
       <c r="AL11" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AM11" s="27"/>
       <c r="AN11" s="27"/>
@@ -5568,13 +5645,13 @@
         <v>79</v>
       </c>
       <c r="AT11" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AU11" s="26" t="s">
         <v>56</v>
       </c>
       <c r="AV11" s="39" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="AW11" s="26" t="s">
         <v>86</v>
@@ -5599,7 +5676,7 @@
       </c>
       <c r="BF11" s="26"/>
       <c r="BG11" s="26" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="BH11" s="26"/>
       <c r="BI11" s="26"/>
@@ -5639,23 +5716,23 @@
       <c r="CQ11" s="26"/>
       <c r="CR11" s="26"/>
       <c r="CS11" s="26" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CT11" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="CU11" s="27"/>
       <c r="CV11" s="26"/>
       <c r="CW11" s="26"/>
       <c r="CX11" s="26"/>
       <c r="CY11" s="26" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CZ11" s="26"/>
       <c r="DA11" s="26"/>
       <c r="DB11" s="26"/>
     </row>
-    <row r="12" spans="1:106" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:107" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="26">
         <v>11</v>
       </c>
@@ -5673,7 +5750,7 @@
       <c r="G12" s="26"/>
       <c r="H12" s="26"/>
       <c r="I12" s="26" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="J12" s="26"/>
       <c r="K12" s="26"/>
@@ -5682,7 +5759,7 @@
         <v>5</v>
       </c>
       <c r="N12" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O12" s="28" t="s">
         <v>287</v>
@@ -5713,23 +5790,23 @@
         <v>24</v>
       </c>
       <c r="AA12" s="29" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AB12" s="26" t="s">
         <v>30</v>
       </c>
       <c r="AC12" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AD12" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AE12" s="26"/>
       <c r="AF12" s="26" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="AG12" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AH12" s="26"/>
       <c r="AI12" s="26" t="s">
@@ -5742,7 +5819,7 @@
         <v>37</v>
       </c>
       <c r="AL12" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AM12" s="27"/>
       <c r="AN12" s="27"/>
@@ -5762,26 +5839,26 @@
         <v>57</v>
       </c>
       <c r="AZ12" s="26" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="BA12" s="26" t="s">
         <v>57</v>
       </c>
       <c r="BB12" s="26" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="BC12" s="26" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="BD12" s="26" t="s">
         <v>57</v>
       </c>
       <c r="BE12" s="26"/>
       <c r="BF12" s="26" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="BG12" s="26" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="BH12" s="26"/>
       <c r="BI12" s="26"/>
@@ -5821,23 +5898,23 @@
       <c r="CQ12" s="26"/>
       <c r="CR12" s="26"/>
       <c r="CS12" s="26" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CT12" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="CU12" s="27"/>
       <c r="CV12" s="26"/>
       <c r="CW12" s="26"/>
       <c r="CX12" s="26"/>
       <c r="CY12" s="26" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CZ12" s="26"/>
       <c r="DA12" s="26"/>
       <c r="DB12" s="26"/>
     </row>
-    <row r="13" spans="1:106" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:107" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="26">
         <v>12</v>
       </c>
@@ -5855,7 +5932,7 @@
       <c r="G13" s="26"/>
       <c r="H13" s="26"/>
       <c r="I13" s="26" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="J13" s="26"/>
       <c r="K13" s="26"/>
@@ -5864,7 +5941,7 @@
         <v>5</v>
       </c>
       <c r="N13" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O13" s="28" t="s">
         <v>287</v>
@@ -5895,25 +5972,25 @@
         <v>24</v>
       </c>
       <c r="AA13" s="29" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AB13" s="26" t="s">
         <v>30</v>
       </c>
       <c r="AC13" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AD13" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AE13" s="26" t="s">
         <v>99</v>
       </c>
       <c r="AF13" s="26" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="AG13" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AH13" s="26" t="s">
         <v>99</v>
@@ -5928,7 +6005,7 @@
         <v>37</v>
       </c>
       <c r="AL13" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AM13" s="27"/>
       <c r="AN13" s="27"/>
@@ -5948,26 +6025,26 @@
         <v>57</v>
       </c>
       <c r="AZ13" s="26" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="BA13" s="26" t="s">
         <v>57</v>
       </c>
       <c r="BB13" s="26" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="BC13" s="26" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="BD13" s="26" t="s">
         <v>57</v>
       </c>
       <c r="BE13" s="26"/>
       <c r="BF13" s="26" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="BG13" s="26" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="BH13" s="26"/>
       <c r="BI13" s="26"/>
@@ -6007,23 +6084,23 @@
       <c r="CQ13" s="26"/>
       <c r="CR13" s="26"/>
       <c r="CS13" s="26" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CT13" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="CU13" s="27"/>
       <c r="CV13" s="26"/>
       <c r="CW13" s="26"/>
       <c r="CX13" s="26"/>
       <c r="CY13" s="26" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CZ13" s="26"/>
       <c r="DA13" s="26"/>
       <c r="DB13" s="26"/>
     </row>
-    <row r="14" spans="1:106" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:107" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="26">
         <v>13</v>
       </c>
@@ -6041,7 +6118,7 @@
       <c r="G14" s="26"/>
       <c r="H14" s="26"/>
       <c r="I14" s="26" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="J14" s="26"/>
       <c r="K14" s="26"/>
@@ -6050,7 +6127,7 @@
         <v>5</v>
       </c>
       <c r="N14" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O14" s="28" t="s">
         <v>287</v>
@@ -6081,23 +6158,23 @@
         <v>24</v>
       </c>
       <c r="AA14" s="29" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AB14" s="26" t="s">
         <v>30</v>
       </c>
       <c r="AC14" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AD14" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AE14" s="26"/>
       <c r="AF14" s="26" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="AG14" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AH14" s="26"/>
       <c r="AI14" s="26" t="s">
@@ -6110,7 +6187,7 @@
         <v>37</v>
       </c>
       <c r="AL14" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AM14" s="27"/>
       <c r="AN14" s="27"/>
@@ -6130,16 +6207,16 @@
         <v>57</v>
       </c>
       <c r="AZ14" s="26" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="BA14" s="26" t="s">
         <v>57</v>
       </c>
       <c r="BB14" s="26" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="BC14" s="26" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="BD14" s="26" t="s">
         <v>57</v>
@@ -6147,7 +6224,7 @@
       <c r="BE14" s="26"/>
       <c r="BF14" s="26"/>
       <c r="BG14" s="26" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="BH14" s="26"/>
       <c r="BI14" s="26"/>
@@ -6187,23 +6264,23 @@
       <c r="CQ14" s="26"/>
       <c r="CR14" s="26"/>
       <c r="CS14" s="26" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CT14" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="CU14" s="27"/>
       <c r="CV14" s="26"/>
       <c r="CW14" s="26"/>
       <c r="CX14" s="26"/>
       <c r="CY14" s="26" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CZ14" s="26"/>
       <c r="DA14" s="26"/>
       <c r="DB14" s="26"/>
     </row>
-    <row r="15" spans="1:106" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:107" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="26">
         <v>14</v>
       </c>
@@ -6221,7 +6298,7 @@
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
       <c r="I15" s="26" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="J15" s="26"/>
       <c r="K15" s="26"/>
@@ -6230,7 +6307,7 @@
         <v>5</v>
       </c>
       <c r="N15" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O15" s="28" t="s">
         <v>287</v>
@@ -6261,23 +6338,23 @@
         <v>24</v>
       </c>
       <c r="AA15" s="29" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AB15" s="26" t="s">
         <v>30</v>
       </c>
       <c r="AC15" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AD15" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AE15" s="26"/>
       <c r="AF15" s="26" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="AG15" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AH15" s="26"/>
       <c r="AI15" s="26" t="s">
@@ -6290,7 +6367,7 @@
         <v>37</v>
       </c>
       <c r="AL15" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AM15" s="27"/>
       <c r="AN15" s="27"/>
@@ -6310,16 +6387,16 @@
         <v>57</v>
       </c>
       <c r="AZ15" s="26" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="BA15" s="26" t="s">
         <v>57</v>
       </c>
       <c r="BB15" s="26" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="BC15" s="26" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="BD15" s="26" t="s">
         <v>57</v>
@@ -6327,7 +6404,7 @@
       <c r="BE15" s="26"/>
       <c r="BF15" s="26"/>
       <c r="BG15" s="26" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="BH15" s="26"/>
       <c r="BI15" s="26"/>
@@ -6367,28 +6444,28 @@
       <c r="CQ15" s="26"/>
       <c r="CR15" s="26"/>
       <c r="CS15" s="26" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CT15" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="CU15" s="27"/>
       <c r="CV15" s="26"/>
       <c r="CW15" s="26"/>
       <c r="CX15" s="26"/>
       <c r="CY15" s="26" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CZ15" s="26"/>
       <c r="DA15" s="26"/>
       <c r="DB15" s="26"/>
     </row>
-    <row r="16" spans="1:106" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:107" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="26">
         <v>15</v>
       </c>
       <c r="B16" s="40" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C16" s="26" t="s">
         <v>28</v>
@@ -6401,7 +6478,7 @@
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
       <c r="I16" s="26" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="J16" s="26"/>
       <c r="K16" s="26"/>
@@ -6410,7 +6487,7 @@
         <v>5</v>
       </c>
       <c r="N16" s="27" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="O16" s="28" t="s">
         <v>287</v>
@@ -6441,23 +6518,23 @@
         <v>24</v>
       </c>
       <c r="AA16" s="29" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AB16" s="26" t="s">
         <v>30</v>
       </c>
       <c r="AC16" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AD16" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AE16" s="26"/>
       <c r="AF16" s="26" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="AG16" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AH16" s="26"/>
       <c r="AI16" s="26" t="s">
@@ -6470,7 +6547,7 @@
         <v>37</v>
       </c>
       <c r="AL16" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AM16" s="27"/>
       <c r="AN16" s="27"/>
@@ -6490,16 +6567,16 @@
         <v>57</v>
       </c>
       <c r="AZ16" s="26" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="BA16" s="26" t="s">
         <v>57</v>
       </c>
       <c r="BB16" s="26" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="BC16" s="26" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="BD16" s="26" t="s">
         <v>57</v>
@@ -6507,7 +6584,7 @@
       <c r="BE16" s="26"/>
       <c r="BF16" s="26"/>
       <c r="BG16" s="26" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="BH16" s="26"/>
       <c r="BI16" s="26"/>
@@ -6547,23 +6624,23 @@
       <c r="CQ16" s="26"/>
       <c r="CR16" s="26"/>
       <c r="CS16" s="26" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CT16" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="CU16" s="27"/>
       <c r="CV16" s="26"/>
       <c r="CW16" s="26"/>
       <c r="CX16" s="26"/>
       <c r="CY16" s="26" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CZ16" s="26"/>
       <c r="DA16" s="26"/>
       <c r="DB16" s="26"/>
     </row>
-    <row r="17" spans="1:106" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:107" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="26">
         <v>16</v>
       </c>
@@ -6581,7 +6658,7 @@
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
       <c r="I17" s="26" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="J17" s="26"/>
       <c r="K17" s="26"/>
@@ -6590,7 +6667,7 @@
         <v>5</v>
       </c>
       <c r="N17" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O17" s="28" t="s">
         <v>287</v>
@@ -6621,23 +6698,23 @@
         <v>24</v>
       </c>
       <c r="AA17" s="29" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AB17" s="26" t="s">
         <v>30</v>
       </c>
       <c r="AC17" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AD17" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AE17" s="26"/>
       <c r="AF17" s="26" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="AG17" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AH17" s="26"/>
       <c r="AI17" s="26" t="s">
@@ -6650,7 +6727,7 @@
         <v>37</v>
       </c>
       <c r="AL17" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AM17" s="27"/>
       <c r="AN17" s="27"/>
@@ -6670,26 +6747,26 @@
         <v>57</v>
       </c>
       <c r="AZ17" s="26" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="BA17" s="26" t="s">
         <v>57</v>
       </c>
       <c r="BB17" s="26" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="BC17" s="26" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="BD17" s="26" t="s">
         <v>57</v>
       </c>
       <c r="BE17" s="26"/>
       <c r="BF17" s="26" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="BG17" s="26" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="BH17" s="26"/>
       <c r="BI17" s="26"/>
@@ -6729,23 +6806,23 @@
       <c r="CQ17" s="26"/>
       <c r="CR17" s="26"/>
       <c r="CS17" s="26" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CT17" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="CU17" s="27"/>
       <c r="CV17" s="26"/>
       <c r="CW17" s="26"/>
       <c r="CX17" s="26"/>
       <c r="CY17" s="26" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CZ17" s="26"/>
       <c r="DA17" s="26"/>
       <c r="DB17" s="26"/>
     </row>
-    <row r="18" spans="1:106" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:107" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="26">
         <v>17</v>
       </c>
@@ -6763,7 +6840,7 @@
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
       <c r="I18" s="26" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="J18" s="26"/>
       <c r="K18" s="26"/>
@@ -6772,7 +6849,7 @@
         <v>5</v>
       </c>
       <c r="N18" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O18" s="28" t="s">
         <v>287</v>
@@ -6803,23 +6880,23 @@
         <v>24</v>
       </c>
       <c r="AA18" s="29" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AB18" s="26" t="s">
         <v>30</v>
       </c>
       <c r="AC18" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AD18" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AE18" s="26"/>
       <c r="AF18" s="26" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="AG18" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AH18" s="26"/>
       <c r="AI18" s="26" t="s">
@@ -6832,7 +6909,7 @@
         <v>37</v>
       </c>
       <c r="AL18" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AM18" s="27"/>
       <c r="AN18" s="27"/>
@@ -6852,26 +6929,26 @@
         <v>57</v>
       </c>
       <c r="AZ18" s="26" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="BA18" s="26" t="s">
         <v>57</v>
       </c>
       <c r="BB18" s="26" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="BC18" s="26" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="BD18" s="26" t="s">
         <v>57</v>
       </c>
       <c r="BE18" s="26"/>
       <c r="BF18" s="26" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="BG18" s="26" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="BH18" s="26"/>
       <c r="BI18" s="26"/>
@@ -6911,23 +6988,23 @@
       <c r="CQ18" s="26"/>
       <c r="CR18" s="26"/>
       <c r="CS18" s="26" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CT18" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="CU18" s="27"/>
       <c r="CV18" s="26"/>
       <c r="CW18" s="26"/>
       <c r="CX18" s="26"/>
       <c r="CY18" s="26" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CZ18" s="26"/>
       <c r="DA18" s="26"/>
       <c r="DB18" s="26"/>
     </row>
-    <row r="19" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A19" s="26">
         <v>18</v>
       </c>
@@ -6945,7 +7022,7 @@
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
       <c r="I19" s="26" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="J19" s="26"/>
       <c r="K19" s="26"/>
@@ -6954,7 +7031,7 @@
         <v>5</v>
       </c>
       <c r="N19" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O19" s="28" t="s">
         <v>287</v>
@@ -6970,7 +7047,7 @@
         <v>108</v>
       </c>
       <c r="T19" s="28" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="U19" s="26" t="s">
         <v>9</v>
@@ -6991,23 +7068,23 @@
         <v>24</v>
       </c>
       <c r="AA19" s="29" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AB19" s="26" t="s">
         <v>30</v>
       </c>
       <c r="AC19" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AD19" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AE19" s="26"/>
       <c r="AF19" s="26" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="AG19" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AH19" s="26"/>
       <c r="AI19" s="26" t="s">
@@ -7020,7 +7097,7 @@
         <v>37</v>
       </c>
       <c r="AL19" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AM19" s="27"/>
       <c r="AN19" s="27"/>
@@ -7045,7 +7122,7 @@
       <c r="BE19" s="31"/>
       <c r="BF19" s="26"/>
       <c r="BG19" s="26" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="BH19" s="31"/>
       <c r="BI19" s="31"/>
@@ -7085,23 +7162,23 @@
       <c r="CQ19" s="31"/>
       <c r="CR19" s="31"/>
       <c r="CS19" s="26" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CT19" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="CU19" s="27"/>
       <c r="CV19" s="31"/>
       <c r="CW19" s="31"/>
       <c r="CX19" s="31"/>
       <c r="CY19" s="26" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CZ19" s="26"/>
       <c r="DA19" s="31"/>
       <c r="DB19" s="31"/>
     </row>
-    <row r="20" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A20" s="26">
         <v>19</v>
       </c>
@@ -7140,7 +7217,7 @@
       <c r="AB20" s="31"/>
       <c r="AC20" s="31"/>
       <c r="AD20" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AE20" s="31"/>
       <c r="AF20" s="31"/>
@@ -7173,7 +7250,7 @@
       <c r="BE20" s="31"/>
       <c r="BF20" s="26"/>
       <c r="BG20" s="26" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="BH20" s="31"/>
       <c r="BI20" s="31"/>
@@ -7213,23 +7290,23 @@
       <c r="CQ20" s="31"/>
       <c r="CR20" s="31"/>
       <c r="CS20" s="26" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CT20" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="CU20" s="27"/>
       <c r="CV20" s="31"/>
       <c r="CW20" s="31"/>
       <c r="CX20" s="31"/>
       <c r="CY20" s="26" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CZ20" s="26"/>
       <c r="DA20" s="31"/>
       <c r="DB20" s="31"/>
     </row>
-    <row r="21" spans="1:106" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:107" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="33">
         <v>20</v>
       </c>
@@ -7249,19 +7326,19 @@
         <v>294</v>
       </c>
       <c r="G21" s="41" t="s">
+        <v>299</v>
+      </c>
+      <c r="H21" s="41" t="s">
         <v>300</v>
       </c>
-      <c r="H21" s="41" t="s">
+      <c r="I21" s="40" t="s">
+        <v>393</v>
+      </c>
+      <c r="J21" s="42" t="s">
         <v>301</v>
       </c>
-      <c r="I21" s="40" t="s">
-        <v>398</v>
-      </c>
-      <c r="J21" s="42" t="s">
-        <v>302</v>
-      </c>
       <c r="K21" s="42" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L21" s="40"/>
       <c r="M21" s="40"/>
@@ -7282,7 +7359,7 @@
       <c r="AB21" s="43"/>
       <c r="AC21" s="43"/>
       <c r="AD21" s="36" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AE21" s="43"/>
       <c r="AF21" s="43"/>
@@ -7315,7 +7392,7 @@
       <c r="BE21" s="43"/>
       <c r="BF21" s="43"/>
       <c r="BG21" s="33" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="BH21" s="43"/>
       <c r="BI21" s="43"/>
@@ -7355,28 +7432,28 @@
       <c r="CQ21" s="43"/>
       <c r="CR21" s="43"/>
       <c r="CS21" s="33" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CT21" s="36" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="CU21" s="36"/>
       <c r="CV21" s="43"/>
       <c r="CW21" s="43"/>
       <c r="CX21" s="43"/>
       <c r="CY21" s="33" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CZ21" s="33"/>
       <c r="DA21" s="43"/>
       <c r="DB21" s="43"/>
     </row>
-    <row r="22" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A22" s="26">
         <v>21</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>28</v>
@@ -7400,7 +7477,7 @@
         <v>5</v>
       </c>
       <c r="N22" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O22" s="28" t="s">
         <v>287</v>
@@ -7433,25 +7510,25 @@
         <v>24</v>
       </c>
       <c r="AA22" s="29" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AB22" s="26" t="s">
         <v>85</v>
       </c>
       <c r="AC22" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AD22" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AE22" s="31" t="s">
         <v>99</v>
       </c>
       <c r="AF22" s="26" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="AG22" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AH22" s="26" t="s">
         <v>99</v>
@@ -7476,7 +7553,7 @@
         <v>79</v>
       </c>
       <c r="AT22" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AU22" s="26" t="s">
         <v>57</v>
@@ -7492,16 +7569,16 @@
         <v>57</v>
       </c>
       <c r="AZ22" s="26" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="BA22" s="26" t="s">
         <v>57</v>
       </c>
       <c r="BB22" s="26" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="BC22" s="26" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="BD22" s="26" t="s">
         <v>57</v>
@@ -7510,10 +7587,10 @@
         <v>85</v>
       </c>
       <c r="BF22" s="26" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="BG22" s="26" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="BH22" s="16" t="s">
         <v>217</v>
@@ -7573,7 +7650,7 @@
         <v>239</v>
       </c>
       <c r="CA22" s="16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="CB22" s="16" t="s">
         <v>241</v>
@@ -7612,10 +7689,10 @@
         <v>57</v>
       </c>
       <c r="CN22" s="16" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="CO22" s="16" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="CP22" s="31" t="s">
         <v>57</v>
@@ -7625,23 +7702,23 @@
       </c>
       <c r="CR22" s="31"/>
       <c r="CS22" s="26" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CT22" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="CU22" s="27"/>
       <c r="CV22" s="31"/>
       <c r="CW22" s="31"/>
       <c r="CX22" s="31"/>
       <c r="CY22" s="26" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="CZ22" s="26"/>
       <c r="DA22" s="31"/>
       <c r="DB22" s="31"/>
     </row>
-    <row r="23" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A23" s="26">
         <v>22</v>
       </c>
@@ -7649,7 +7726,7 @@
         <v>259</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>351</v>
+        <v>423</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>2</v>
@@ -7661,7 +7738,7 @@
       <c r="G23" s="31"/>
       <c r="H23" s="31"/>
       <c r="I23" s="31" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="J23" s="31"/>
       <c r="K23" s="31"/>
@@ -7758,7 +7835,7 @@
         <v>256</v>
       </c>
       <c r="CT23" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="CU23" s="27"/>
       <c r="CV23" s="31"/>
@@ -7769,7 +7846,7 @@
       <c r="DA23" s="31"/>
       <c r="DB23" s="31"/>
     </row>
-    <row r="24" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A24" s="26">
         <v>23</v>
       </c>
@@ -7777,7 +7854,7 @@
         <v>258</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>351</v>
+        <v>423</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>2</v>
@@ -7789,7 +7866,7 @@
       <c r="G24" s="31"/>
       <c r="H24" s="31"/>
       <c r="I24" s="31" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="J24" s="31"/>
       <c r="K24" s="31"/>
@@ -7886,7 +7963,7 @@
         <v>255</v>
       </c>
       <c r="CT24" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="CU24" s="27"/>
       <c r="CV24" s="31"/>
@@ -7897,7 +7974,7 @@
       <c r="DA24" s="31"/>
       <c r="DB24" s="31"/>
     </row>
-    <row r="25" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A25" s="26">
         <v>24</v>
       </c>
@@ -7905,7 +7982,7 @@
         <v>248</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>351</v>
+        <v>423</v>
       </c>
       <c r="D25" s="16" t="s">
         <v>2</v>
@@ -7917,7 +7994,7 @@
       <c r="G25" s="31"/>
       <c r="H25" s="31"/>
       <c r="I25" s="31" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="J25" s="31"/>
       <c r="K25" s="31"/>
@@ -8014,7 +8091,7 @@
         <v>251</v>
       </c>
       <c r="CT25" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="CU25" s="27"/>
       <c r="CV25" s="31"/>
@@ -8025,7 +8102,7 @@
       <c r="DA25" s="31"/>
       <c r="DB25" s="31"/>
     </row>
-    <row r="26" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A26" s="26">
         <v>25</v>
       </c>
@@ -8033,7 +8110,7 @@
         <v>260</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>351</v>
+        <v>423</v>
       </c>
       <c r="D26" s="16" t="s">
         <v>2</v>
@@ -8045,7 +8122,7 @@
       <c r="G26" s="31"/>
       <c r="H26" s="31"/>
       <c r="I26" s="31" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="J26" s="31"/>
       <c r="K26" s="31"/>
@@ -8142,7 +8219,7 @@
         <v>257</v>
       </c>
       <c r="CT26" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="CU26" s="27"/>
       <c r="CV26" s="31"/>
@@ -8153,7 +8230,7 @@
       <c r="DA26" s="31"/>
       <c r="DB26" s="31"/>
     </row>
-    <row r="27" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A27" s="26">
         <v>26</v>
       </c>
@@ -8161,7 +8238,7 @@
         <v>261</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>351</v>
+        <v>423</v>
       </c>
       <c r="D27" s="16" t="s">
         <v>2</v>
@@ -8173,7 +8250,7 @@
       <c r="G27" s="31"/>
       <c r="H27" s="31"/>
       <c r="I27" s="31" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="J27" s="31"/>
       <c r="K27" s="31"/>
@@ -8270,7 +8347,7 @@
         <v>257</v>
       </c>
       <c r="CT27" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="CU27" s="27"/>
       <c r="CV27" s="28" t="s">
@@ -8283,7 +8360,7 @@
       <c r="DA27" s="31"/>
       <c r="DB27" s="31"/>
     </row>
-    <row r="28" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A28" s="26">
         <v>27</v>
       </c>
@@ -8291,7 +8368,7 @@
         <v>262</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>351</v>
+        <v>423</v>
       </c>
       <c r="D28" s="16" t="s">
         <v>2</v>
@@ -8303,7 +8380,7 @@
       <c r="G28" s="31"/>
       <c r="H28" s="31"/>
       <c r="I28" s="31" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J28" s="31"/>
       <c r="K28" s="31"/>
@@ -8400,7 +8477,7 @@
         <v>251</v>
       </c>
       <c r="CT28" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="CU28" s="27"/>
       <c r="CV28" s="28" t="s">
@@ -8413,7 +8490,7 @@
       <c r="DA28" s="31"/>
       <c r="DB28" s="31"/>
     </row>
-    <row r="29" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A29" s="26">
         <v>28</v>
       </c>
@@ -8421,7 +8498,7 @@
         <v>266</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>351</v>
+        <v>423</v>
       </c>
       <c r="D29" s="16" t="s">
         <v>2</v>
@@ -8431,7 +8508,7 @@
       <c r="G29" s="31"/>
       <c r="H29" s="31"/>
       <c r="I29" s="31" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="J29" s="31"/>
       <c r="K29" s="31"/>
@@ -8463,21 +8540,21 @@
         <v>24</v>
       </c>
       <c r="AA29" s="45" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="AB29" s="31"/>
       <c r="AC29" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AD29" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AE29" s="31"/>
       <c r="AF29" s="26" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="AG29" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AH29" s="31"/>
       <c r="AI29" s="26" t="s">
@@ -8557,6 +8634,122 @@
       <c r="DA29" s="31"/>
       <c r="DB29" s="31"/>
     </row>
+    <row r="30" spans="1:107" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>413</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="M30" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="N30" s="27" t="s">
+        <v>347</v>
+      </c>
+      <c r="O30" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="U30" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="V30" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="W30" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="X30" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y30" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z30" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA30" s="64" t="s">
+        <v>416</v>
+      </c>
+      <c r="AB30" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC30" s="27" t="s">
+        <v>347</v>
+      </c>
+      <c r="AD30" s="27" t="s">
+        <v>347</v>
+      </c>
+      <c r="AE30" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF30" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="AG30" s="27" t="s">
+        <v>347</v>
+      </c>
+      <c r="AH30" s="26"/>
+      <c r="AI30" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ30" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK30" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL30" s="27" t="s">
+        <v>347</v>
+      </c>
+      <c r="AU30" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY30" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="BF30" s="31" t="s">
+        <v>417</v>
+      </c>
+      <c r="BG30" s="31" t="s">
+        <v>417</v>
+      </c>
+      <c r="CS30" s="26" t="s">
+        <v>336</v>
+      </c>
+      <c r="CT30" s="27" t="s">
+        <v>347</v>
+      </c>
+      <c r="CY30" s="26" t="s">
+        <v>338</v>
+      </c>
+      <c r="DC30" s="64" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="31" spans="1:107" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="63" t="s">
+        <v>420</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -8569,68 +8762,68 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D073B921-24DF-4F78-BD1E-1984D65F897D}">
-  <dimension ref="A1:BB17"/>
+  <dimension ref="A1:BC17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:BA16"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="114.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.77734375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="9.33203125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="19.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.44140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="18.33203125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="20.109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="18.21875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="82.44140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="19.21875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="18.88671875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="19.109375" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="16.6640625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="10.109375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="7.6640625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="24.5546875" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="15.77734375" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="23.5546875" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="34.88671875" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="13.5546875" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" width="13.5546875" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="18.109375" collapsed="true"/>
-    <col min="30" max="32" customWidth="true" width="18.109375" collapsed="true"/>
-    <col min="33" max="33" customWidth="true" width="9.5546875" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="13.77734375" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="9.6640625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="15.44140625" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="10.44140625" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="4.109375" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" width="5.6640625" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="6.77734375" collapsed="true"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" width="13.21875" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="15.44140625" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="17.5546875" collapsed="true"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" width="15.44140625" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="10.6640625" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" width="19.6640625" collapsed="true"/>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="114" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="82.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="34.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="29" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="33" width="18.140625" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="9.5703125" customWidth="1" collapsed="1"/>
+    <col min="35" max="36" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="4.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="6.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
@@ -8641,158 +8834,161 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>378</v>
-      </c>
       <c r="G1" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="AC1" s="2" t="s">
-        <v>379</v>
-      </c>
       <c r="AD1" s="2" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AH1" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="AI1" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AX1" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AY1" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="BA1" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BB1" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="BB1" s="2"/>
+      <c r="BC1" s="2"/>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -8802,49 +8998,49 @@
       <c r="C2" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="16"/>
+      <c r="E2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="F2" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="16"/>
+      <c r="H2" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="I2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="16"/>
+      <c r="K2" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="L2" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="M2" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="N2" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="N2" s="17"/>
       <c r="O2" s="17"/>
       <c r="P2" s="17"/>
-      <c r="Q2" s="16" t="s">
+      <c r="Q2" s="17"/>
+      <c r="R2" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="17" t="s">
+      <c r="S2" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="S2" s="17"/>
       <c r="T2" s="17"/>
       <c r="U2" s="17"/>
       <c r="V2" s="17"/>
       <c r="W2" s="17"/>
       <c r="X2" s="17"/>
       <c r="Y2" s="17"/>
-      <c r="Z2" s="16"/>
+      <c r="Z2" s="17"/>
       <c r="AA2" s="16"/>
       <c r="AB2" s="16"/>
       <c r="AC2" s="16"/>
@@ -8872,8 +9068,9 @@
       <c r="AY2" s="16"/>
       <c r="AZ2" s="16"/>
       <c r="BA2" s="16"/>
+      <c r="BB2" s="16"/>
     </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -8883,52 +9080,52 @@
       <c r="C3" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="F3" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="16"/>
+      <c r="H3" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="I3" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="16"/>
+      <c r="K3" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="L3" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="M3" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="N3" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="N3" s="17"/>
       <c r="O3" s="17"/>
       <c r="P3" s="17"/>
-      <c r="Q3" s="16" t="s">
+      <c r="Q3" s="17"/>
+      <c r="R3" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="R3" s="17" t="s">
+      <c r="S3" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="S3" s="17"/>
       <c r="T3" s="17"/>
       <c r="U3" s="17"/>
       <c r="V3" s="17"/>
       <c r="W3" s="17"/>
       <c r="X3" s="17"/>
       <c r="Y3" s="17"/>
-      <c r="Z3" s="17" t="s">
+      <c r="Z3" s="17"/>
+      <c r="AA3" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="AA3" s="16"/>
       <c r="AB3" s="16"/>
       <c r="AC3" s="16"/>
       <c r="AD3" s="16"/>
@@ -8955,8 +9152,9 @@
       <c r="AY3" s="16"/>
       <c r="AZ3" s="16"/>
       <c r="BA3" s="16"/>
+      <c r="BB3" s="16"/>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>3</v>
       </c>
@@ -8966,54 +9164,54 @@
       <c r="C4" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="16"/>
+      <c r="E4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="F4" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="16"/>
+      <c r="H4" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="I4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16" t="s">
+      <c r="J4" s="16"/>
+      <c r="K4" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="L4" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="L4" s="16" t="s">
+      <c r="M4" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="M4" s="17" t="s">
+      <c r="N4" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="N4" s="17"/>
       <c r="O4" s="17"/>
       <c r="P4" s="17"/>
-      <c r="Q4" s="16" t="s">
+      <c r="Q4" s="17"/>
+      <c r="R4" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="R4" s="17" t="s">
+      <c r="S4" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="S4" s="17" t="s">
+      <c r="T4" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="T4" s="17"/>
       <c r="U4" s="17"/>
       <c r="V4" s="17"/>
       <c r="W4" s="17"/>
       <c r="X4" s="17"/>
-      <c r="Y4" s="17" t="s">
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="16"/>
+      <c r="AA4" s="17"/>
       <c r="AB4" s="16"/>
       <c r="AC4" s="16"/>
       <c r="AD4" s="16"/>
@@ -9040,8 +9238,9 @@
       <c r="AY4" s="16"/>
       <c r="AZ4" s="16"/>
       <c r="BA4" s="16"/>
+      <c r="BB4" s="16"/>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>4</v>
       </c>
@@ -9051,49 +9250,49 @@
       <c r="C5" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="16"/>
+      <c r="E5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="F5" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="16"/>
+      <c r="H5" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="I5" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16" t="s">
+      <c r="J5" s="16"/>
+      <c r="K5" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="K5" s="17" t="s">
+      <c r="L5" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="L5" s="16" t="s">
+      <c r="M5" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="M5" s="17" t="s">
+      <c r="N5" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="N5" s="17"/>
       <c r="O5" s="17"/>
       <c r="P5" s="17"/>
-      <c r="Q5" s="16" t="s">
+      <c r="Q5" s="17"/>
+      <c r="R5" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="R5" s="17" t="s">
+      <c r="S5" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="S5" s="17"/>
       <c r="T5" s="17"/>
       <c r="U5" s="17"/>
       <c r="V5" s="17"/>
       <c r="W5" s="17"/>
       <c r="X5" s="17"/>
       <c r="Y5" s="17"/>
-      <c r="Z5" s="16"/>
+      <c r="Z5" s="17"/>
       <c r="AA5" s="16"/>
       <c r="AB5" s="16"/>
       <c r="AC5" s="16"/>
@@ -9121,8 +9320,9 @@
       <c r="AY5" s="16"/>
       <c r="AZ5" s="16"/>
       <c r="BA5" s="16"/>
+      <c r="BB5" s="16"/>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>5</v>
       </c>
@@ -9132,57 +9332,57 @@
       <c r="C6" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="16"/>
+      <c r="E6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="F6" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="16"/>
+      <c r="H6" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="I6" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16" t="s">
+      <c r="J6" s="16"/>
+      <c r="K6" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="K6" s="17" t="s">
+      <c r="L6" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="L6" s="16" t="s">
+      <c r="M6" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="M6" s="46" t="s">
+      <c r="N6" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="N6" s="17" t="s">
+      <c r="O6" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="O6" s="46" t="s">
+      <c r="P6" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="16" t="s">
+      <c r="Q6" s="17"/>
+      <c r="R6" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="R6" s="17" t="s">
+      <c r="S6" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="S6" s="17"/>
       <c r="T6" s="17"/>
       <c r="U6" s="17"/>
       <c r="V6" s="17"/>
       <c r="W6" s="17"/>
       <c r="X6" s="17"/>
       <c r="Y6" s="17"/>
-      <c r="Z6" s="16"/>
-      <c r="AA6" s="16" t="s">
+      <c r="Z6" s="17"/>
+      <c r="AA6" s="16"/>
+      <c r="AB6" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="AB6" s="16"/>
       <c r="AC6" s="16"/>
       <c r="AD6" s="16"/>
       <c r="AE6" s="16"/>
@@ -9208,8 +9408,9 @@
       <c r="AY6" s="16"/>
       <c r="AZ6" s="16"/>
       <c r="BA6" s="16"/>
+      <c r="BB6" s="16"/>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>6</v>
       </c>
@@ -9219,57 +9420,57 @@
       <c r="C7" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="16"/>
+      <c r="E7" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="F7" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="16"/>
+      <c r="H7" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="I7" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16" t="s">
+      <c r="J7" s="16"/>
+      <c r="K7" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="K7" s="17" t="s">
+      <c r="L7" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="L7" s="16" t="s">
+      <c r="M7" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="M7" s="46" t="s">
+      <c r="N7" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="N7" s="17" t="s">
+      <c r="O7" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="O7" s="46" t="s">
+      <c r="P7" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="16" t="s">
+      <c r="Q7" s="17"/>
+      <c r="R7" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="R7" s="17" t="s">
+      <c r="S7" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="S7" s="17"/>
       <c r="T7" s="17"/>
       <c r="U7" s="17"/>
       <c r="V7" s="17"/>
       <c r="W7" s="17"/>
       <c r="X7" s="17"/>
       <c r="Y7" s="17"/>
-      <c r="Z7" s="16"/>
-      <c r="AA7" s="16" t="s">
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="AB7" s="16"/>
       <c r="AC7" s="16"/>
       <c r="AD7" s="16"/>
       <c r="AE7" s="16"/>
@@ -9295,8 +9496,9 @@
       <c r="AY7" s="16"/>
       <c r="AZ7" s="16"/>
       <c r="BA7" s="16"/>
+      <c r="BB7" s="16"/>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>7</v>
       </c>
@@ -9306,46 +9508,46 @@
       <c r="C8" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="16"/>
+      <c r="E8" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="F8" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="16"/>
+      <c r="H8" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="I8" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16" t="s">
+      <c r="J8" s="16"/>
+      <c r="K8" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="K8" s="17" t="s">
+      <c r="L8" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="L8" s="16"/>
-      <c r="M8" s="46" t="s">
+      <c r="M8" s="16"/>
+      <c r="N8" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="N8" s="16"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="46"/>
       <c r="Q8" s="16"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="18" t="s">
+      <c r="R8" s="16"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="U8" s="18"/>
       <c r="V8" s="18"/>
       <c r="W8" s="18"/>
-      <c r="X8" s="16" t="s">
+      <c r="X8" s="18"/>
+      <c r="Y8" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="Y8" s="16"/>
       <c r="Z8" s="16"/>
       <c r="AA8" s="16"/>
       <c r="AB8" s="16"/>
@@ -9374,8 +9576,9 @@
       <c r="AY8" s="16"/>
       <c r="AZ8" s="16"/>
       <c r="BA8" s="16"/>
+      <c r="BB8" s="16"/>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>8</v>
       </c>
@@ -9385,61 +9588,61 @@
       <c r="C9" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="16"/>
+      <c r="E9" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="F9" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="16"/>
+      <c r="H9" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="I9" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16" t="s">
+      <c r="J9" s="16"/>
+      <c r="K9" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="K9" s="47">
+      <c r="L9" s="47">
         <v>44201</v>
       </c>
-      <c r="L9" s="16" t="s">
+      <c r="M9" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="M9" s="46" t="s">
+      <c r="N9" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="N9" s="17" t="s">
+      <c r="O9" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="O9" s="46" t="s">
+      <c r="P9" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="P9" s="16" t="s">
+      <c r="Q9" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="Q9" s="16" t="s">
+      <c r="R9" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="R9" s="17" t="s">
+      <c r="S9" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="S9" s="16"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="17" t="s">
+      <c r="T9" s="16"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="V9" s="17"/>
       <c r="W9" s="17"/>
-      <c r="X9" s="16"/>
+      <c r="X9" s="17"/>
       <c r="Y9" s="16"/>
       <c r="Z9" s="16"/>
-      <c r="AA9" s="16" t="s">
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="AB9" s="16"/>
       <c r="AC9" s="16"/>
       <c r="AD9" s="16"/>
       <c r="AE9" s="16"/>
@@ -9465,8 +9668,9 @@
       <c r="AY9" s="16"/>
       <c r="AZ9" s="16"/>
       <c r="BA9" s="16"/>
+      <c r="BB9" s="16"/>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>9</v>
       </c>
@@ -9476,50 +9680,50 @@
       <c r="C10" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="16"/>
+      <c r="E10" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="F10" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="16"/>
+      <c r="H10" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="I10" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16" t="s">
+      <c r="J10" s="16"/>
+      <c r="K10" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="K10" s="17" t="s">
+      <c r="L10" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="L10" s="16"/>
-      <c r="M10" s="46" t="s">
+      <c r="M10" s="16"/>
+      <c r="N10" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="N10" s="18"/>
-      <c r="O10" s="46"/>
-      <c r="P10" s="16" t="s">
+      <c r="O10" s="18"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="18" t="s">
+      <c r="R10" s="16"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="U10" s="17" t="s">
+      <c r="V10" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="V10" s="18"/>
       <c r="W10" s="18"/>
-      <c r="X10" s="16" t="s">
+      <c r="X10" s="18"/>
+      <c r="Y10" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="Y10" s="16"/>
       <c r="Z10" s="16"/>
       <c r="AA10" s="16"/>
       <c r="AB10" s="16"/>
@@ -9548,8 +9752,9 @@
       <c r="AY10" s="16"/>
       <c r="AZ10" s="16"/>
       <c r="BA10" s="16"/>
+      <c r="BB10" s="16"/>
     </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>10</v>
       </c>
@@ -9559,46 +9764,46 @@
       <c r="C11" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="16"/>
+      <c r="E11" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="F11" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="16"/>
+      <c r="H11" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="I11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16" t="s">
+      <c r="J11" s="16"/>
+      <c r="K11" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="K11" s="47"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="47"/>
-      <c r="P11" s="16" t="s">
+      <c r="L11" s="47"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="47"/>
+      <c r="Q11" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="18" t="s">
+      <c r="R11" s="16"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="U11" s="17" t="s">
+      <c r="V11" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="V11" s="17"/>
       <c r="W11" s="17"/>
-      <c r="X11" s="16" t="s">
+      <c r="X11" s="17"/>
+      <c r="Y11" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="Y11" s="16"/>
       <c r="Z11" s="16"/>
       <c r="AA11" s="16"/>
       <c r="AB11" s="16"/>
@@ -9627,8 +9832,9 @@
       <c r="AY11" s="16"/>
       <c r="AZ11" s="16"/>
       <c r="BA11" s="16"/>
+      <c r="BB11" s="16"/>
     </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>11</v>
       </c>
@@ -9638,52 +9844,52 @@
       <c r="C12" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="16"/>
+      <c r="E12" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="F12" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="16"/>
+      <c r="H12" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="I12" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="16" t="s">
+      <c r="J12" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="J12" s="16" t="s">
+      <c r="K12" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="K12" s="16"/>
       <c r="L12" s="16"/>
       <c r="M12" s="16"/>
       <c r="N12" s="16"/>
       <c r="O12" s="16"/>
       <c r="P12" s="16"/>
-      <c r="Q12" s="16" t="s">
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="R12" s="17" t="s">
+      <c r="S12" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="S12" s="16"/>
-      <c r="T12" s="18" t="s">
+      <c r="T12" s="16"/>
+      <c r="U12" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="U12" s="18" t="s">
+      <c r="V12" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="V12" s="18"/>
-      <c r="W12" s="18" t="s">
+      <c r="W12" s="18"/>
+      <c r="X12" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="X12" s="16" t="s">
+      <c r="Y12" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="Y12" s="16"/>
       <c r="Z12" s="16"/>
       <c r="AA12" s="16"/>
       <c r="AB12" s="16"/>
@@ -9712,8 +9918,9 @@
       <c r="AY12" s="16"/>
       <c r="AZ12" s="16"/>
       <c r="BA12" s="16"/>
+      <c r="BB12" s="16"/>
     </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>12</v>
       </c>
@@ -9724,53 +9931,55 @@
         <v>140</v>
       </c>
       <c r="D13" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="E13" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="F13" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="16"/>
+      <c r="H13" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="I13" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="16" t="s">
+      <c r="J13" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="J13" s="16" t="s">
+      <c r="K13" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="K13" s="16"/>
       <c r="L13" s="16"/>
       <c r="M13" s="16"/>
       <c r="N13" s="16"/>
       <c r="O13" s="16"/>
       <c r="P13" s="16"/>
-      <c r="Q13" s="16" t="s">
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="R13" s="17" t="s">
+      <c r="S13" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="S13" s="16"/>
-      <c r="T13" s="18" t="s">
+      <c r="T13" s="16"/>
+      <c r="U13" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="U13" s="18" t="s">
+      <c r="V13" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="V13" s="18" t="s">
+      <c r="W13" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="W13" s="18" t="s">
+      <c r="X13" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="X13" s="16" t="s">
+      <c r="Y13" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="Y13" s="16"/>
       <c r="Z13" s="16"/>
       <c r="AA13" s="16"/>
       <c r="AB13" s="16"/>
@@ -9799,8 +10008,9 @@
       <c r="AY13" s="16"/>
       <c r="AZ13" s="16"/>
       <c r="BA13" s="16"/>
+      <c r="BB13" s="16"/>
     </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>13</v>
       </c>
@@ -9810,52 +10020,52 @@
       <c r="C14" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="16"/>
+      <c r="E14" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="F14" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="16"/>
+      <c r="H14" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="I14" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="I14" s="16" t="s">
+      <c r="J14" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="J14" s="16" t="s">
+      <c r="K14" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="K14" s="16"/>
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
       <c r="N14" s="16"/>
       <c r="O14" s="16"/>
       <c r="P14" s="16"/>
-      <c r="Q14" s="16" t="s">
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="R14" s="17" t="s">
+      <c r="S14" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="S14" s="16"/>
-      <c r="T14" s="18" t="s">
+      <c r="T14" s="16"/>
+      <c r="U14" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="U14" s="18" t="s">
+      <c r="V14" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="V14" s="18"/>
-      <c r="W14" s="18" t="s">
+      <c r="W14" s="18"/>
+      <c r="X14" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="X14" s="16" t="s">
+      <c r="Y14" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="Y14" s="16"/>
       <c r="Z14" s="16"/>
       <c r="AA14" s="16"/>
       <c r="AB14" s="16"/>
@@ -9884,8 +10094,9 @@
       <c r="AY14" s="16"/>
       <c r="AZ14" s="16"/>
       <c r="BA14" s="16"/>
+      <c r="BB14" s="16"/>
     </row>
-    <row r="15" spans="1:54" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:55" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>14</v>
       </c>
@@ -9895,116 +10106,114 @@
       <c r="C15" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="D15" s="40" t="s">
+      <c r="D15" s="40"/>
+      <c r="E15" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="40" t="s">
+      <c r="F15" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40" t="s">
+      <c r="G15" s="40"/>
+      <c r="H15" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="H15" s="40" t="s">
+      <c r="I15" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="I15" s="40" t="s">
+      <c r="J15" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="J15" s="40" t="s">
+      <c r="K15" s="40" t="s">
         <v>269</v>
       </c>
-      <c r="K15" s="42" t="s">
+      <c r="L15" s="42" t="s">
         <v>163</v>
       </c>
-      <c r="L15" s="40" t="s">
+      <c r="M15" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="M15" s="36" t="s">
+      <c r="N15" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="N15" s="42" t="s">
+      <c r="O15" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="O15" s="36" t="s">
+      <c r="P15" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="P15" s="40" t="s">
+      <c r="Q15" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="Q15" s="40" t="s">
+      <c r="R15" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="R15" s="42" t="s">
+      <c r="S15" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="S15" s="42" t="s">
+      <c r="T15" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="T15" s="40"/>
       <c r="U15" s="40"/>
-      <c r="V15" s="48" t="s">
+      <c r="V15" s="40"/>
+      <c r="W15" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="W15" s="48" t="s">
+      <c r="X15" s="48" t="s">
         <v>170</v>
       </c>
-      <c r="X15" s="40"/>
       <c r="Y15" s="40"/>
       <c r="Z15" s="40"/>
-      <c r="AA15" s="40" t="s">
-        <v>148</v>
-      </c>
+      <c r="AA15" s="40"/>
       <c r="AB15" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="AC15" s="40"/>
+      <c r="AC15" s="40" t="s">
+        <v>148</v>
+      </c>
       <c r="AD15" s="40"/>
       <c r="AE15" s="40"/>
       <c r="AF15" s="40"/>
       <c r="AG15" s="40"/>
-      <c r="AH15" s="40" t="s">
+      <c r="AH15" s="40"/>
+      <c r="AI15" s="40" t="s">
         <v>279</v>
       </c>
-      <c r="AI15" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ15" s="49" t="s">
+      <c r="AJ15" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK15" s="49" t="s">
         <v>222</v>
       </c>
-      <c r="AK15" s="40" t="s">
+      <c r="AL15" s="40" t="s">
         <v>229</v>
       </c>
-      <c r="AL15" s="40" t="s">
+      <c r="AM15" s="40" t="s">
         <v>280</v>
       </c>
-      <c r="AM15" s="40" t="s">
+      <c r="AN15" s="40" t="s">
         <v>237</v>
       </c>
-      <c r="AN15" s="40" t="s">
+      <c r="AO15" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="AO15" s="40" t="s">
+      <c r="AP15" s="40" t="s">
         <v>239</v>
       </c>
-      <c r="AP15" s="40" t="s">
+      <c r="AQ15" s="40" t="s">
         <v>240</v>
       </c>
-      <c r="AQ15" s="40" t="s">
+      <c r="AR15" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="AR15" s="48" t="s">
+      <c r="AS15" s="48" t="s">
         <v>245</v>
       </c>
-      <c r="AS15" s="48" t="s">
+      <c r="AT15" s="48" t="s">
         <v>244</v>
       </c>
-      <c r="AT15" s="50" t="s">
+      <c r="AU15" s="50" t="s">
         <v>242</v>
       </c>
-      <c r="AU15" s="40" t="s">
-        <v>57</v>
-      </c>
       <c r="AV15" s="40" t="s">
         <v>57</v>
       </c>
@@ -10012,72 +10221,75 @@
         <v>57</v>
       </c>
       <c r="AX15" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY15" s="40" t="s">
         <v>281</v>
       </c>
-      <c r="AY15" s="51" t="s">
+      <c r="AZ15" s="51" t="s">
         <v>285</v>
       </c>
-      <c r="AZ15" s="40" t="s">
-        <v>57</v>
-      </c>
       <c r="BA15" s="40" t="s">
         <v>57</v>
       </c>
+      <c r="BB15" s="40" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <v>15</v>
       </c>
       <c r="B16" s="52" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="16"/>
+      <c r="E16" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="F16" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="G16" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="H16" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="I16" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="16" t="s">
+      <c r="J16" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="J16" s="16" t="s">
-        <v>377</v>
-      </c>
-      <c r="K16" s="27" t="s">
-        <v>348</v>
-      </c>
-      <c r="L16" s="16" t="s">
+      <c r="K16" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="L16" s="27" t="s">
+        <v>347</v>
+      </c>
+      <c r="M16" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="M16" s="27" t="s">
-        <v>392</v>
-      </c>
-      <c r="N16" s="18" t="s">
-        <v>382</v>
-      </c>
-      <c r="O16" s="27" t="s">
-        <v>392</v>
-      </c>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16" t="s">
+      <c r="N16" s="27" t="s">
+        <v>387</v>
+      </c>
+      <c r="O16" s="18" t="s">
+        <v>379</v>
+      </c>
+      <c r="P16" s="27" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="R16" s="17" t="s">
+      <c r="S16" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="S16" s="16"/>
       <c r="T16" s="16"/>
       <c r="U16" s="16"/>
       <c r="V16" s="16"/>
@@ -10087,22 +10299,22 @@
       <c r="Z16" s="16"/>
       <c r="AA16" s="16"/>
       <c r="AB16" s="16"/>
-      <c r="AC16" s="27" t="s">
-        <v>391</v>
-      </c>
-      <c r="AD16" s="53" t="s">
-        <v>337</v>
+      <c r="AC16" s="16"/>
+      <c r="AD16" s="27" t="s">
+        <v>386</v>
       </c>
       <c r="AE16" s="53" t="s">
-        <v>339</v>
-      </c>
-      <c r="AF16" s="27" t="s">
-        <v>412</v>
-      </c>
-      <c r="AG16" s="53" t="s">
-        <v>384</v>
-      </c>
-      <c r="AH16" s="16"/>
+        <v>336</v>
+      </c>
+      <c r="AF16" s="53" t="s">
+        <v>338</v>
+      </c>
+      <c r="AG16" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="AH16" s="53" t="s">
+        <v>381</v>
+      </c>
       <c r="AI16" s="16"/>
       <c r="AJ16" s="16"/>
       <c r="AK16" s="16"/>
@@ -10122,14 +10334,15 @@
       <c r="AY16" s="16"/>
       <c r="AZ16" s="16"/>
       <c r="BA16" s="16"/>
+      <c r="BB16" s="16"/>
     </row>
-    <row r="17" spans="29:29" x14ac:dyDescent="0.3">
-      <c r="AC17" s="14"/>
+    <row r="17" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD17" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AT15" r:id="rId1" xr:uid="{8A19EDCF-BD59-40A9-B1BB-CA280508B1BC}"/>
-    <hyperlink ref="J16" r:id="rId2" display="http://10.32.6.121:8080/tfs/MSDynamics/MSDynamicsCRM/_workitems/edit/5906" xr:uid="{887959FD-2E54-4DD2-BB21-81D978BEC156}"/>
+    <hyperlink ref="AU15" r:id="rId1" xr:uid="{8A19EDCF-BD59-40A9-B1BB-CA280508B1BC}"/>
+    <hyperlink ref="K16" r:id="rId2" display="http://10.32.6.121:8080/tfs/MSDynamics/MSDynamicsCRM/_workitems/edit/5906" xr:uid="{887959FD-2E54-4DD2-BB21-81D978BEC156}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -10144,30 +10357,30 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="113.77734375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.77734375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="9.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="9.33203125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.77734375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="16.21875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="24.44140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="65.44140625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="73.88671875" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="14.5546875" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="24.44140625" collapsed="true"/>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="113.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="65.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="73.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>34</v>
       </c>
@@ -10181,57 +10394,57 @@
         <v>1</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>310</v>
-      </c>
       <c r="H1" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J1" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>317</v>
-      </c>
       <c r="N1" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="O1" s="6" t="s">
         <v>322</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>323</v>
       </c>
       <c r="P1" s="6" t="s">
         <v>40</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="54">
         <v>1</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>28</v>
@@ -10241,23 +10454,23 @@
       </c>
       <c r="E2" s="26"/>
       <c r="F2" s="54" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G2" s="54" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H2" s="55" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I2" s="55"/>
       <c r="J2" s="26" t="s">
         <v>22</v>
       </c>
       <c r="K2" s="26" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L2" s="56" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M2" s="54"/>
       <c r="N2" s="54"/>
@@ -10280,12 +10493,12 @@
       <c r="AE2" s="11"/>
       <c r="AF2" s="11"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="54">
         <v>2</v>
       </c>
       <c r="B3" s="54" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>28</v>
@@ -10295,23 +10508,23 @@
       </c>
       <c r="E3" s="26"/>
       <c r="F3" s="54" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G3" s="54" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H3" s="55" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I3" s="55"/>
       <c r="J3" s="26" t="s">
         <v>22</v>
       </c>
       <c r="K3" s="26" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L3" s="56" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M3" s="57">
         <v>44562</v>
@@ -10326,7 +10539,7 @@
       <c r="Q3" s="54"/>
       <c r="R3" s="54"/>
       <c r="S3" s="58" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="T3" s="11"/>
       <c r="U3" s="12"/>
@@ -10342,12 +10555,12 @@
       <c r="AE3" s="11"/>
       <c r="AF3" s="11"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="54">
         <v>3</v>
       </c>
       <c r="B4" s="54" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>28</v>
@@ -10357,23 +10570,23 @@
       </c>
       <c r="E4" s="26"/>
       <c r="F4" s="54" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G4" s="54" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H4" s="55" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I4" s="55"/>
       <c r="J4" s="26" t="s">
         <v>22</v>
       </c>
       <c r="K4" s="26" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L4" s="56" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M4" s="57">
         <v>44562</v>
@@ -10402,12 +10615,12 @@
       <c r="AE4" s="11"/>
       <c r="AF4" s="11"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="54">
         <v>4</v>
       </c>
       <c r="B5" s="54" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>28</v>
@@ -10417,13 +10630,13 @@
       </c>
       <c r="E5" s="26"/>
       <c r="F5" s="54" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G5" s="54" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H5" s="55" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I5" s="55"/>
       <c r="J5" s="26" t="s">
@@ -10435,10 +10648,10 @@
       <c r="N5" s="54"/>
       <c r="O5" s="54"/>
       <c r="P5" s="54" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Q5" s="54" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="R5" s="54"/>
       <c r="S5" s="54"/>
@@ -10456,12 +10669,12 @@
       <c r="AE5" s="11"/>
       <c r="AF5" s="11"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="54">
         <v>5</v>
       </c>
       <c r="B6" s="54" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>28</v>
@@ -10471,23 +10684,23 @@
       </c>
       <c r="E6" s="26"/>
       <c r="F6" s="54" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G6" s="54" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H6" s="55" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I6" s="55"/>
       <c r="J6" s="26" t="s">
         <v>22</v>
       </c>
       <c r="K6" s="26" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L6" s="56" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M6" s="54"/>
       <c r="N6" s="54"/>
@@ -10510,12 +10723,12 @@
       <c r="AE6" s="11"/>
       <c r="AF6" s="11"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="54">
         <v>6</v>
       </c>
       <c r="B7" s="54" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>28</v>
@@ -10524,7 +10737,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="59" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F7" s="54"/>
       <c r="G7" s="54"/>
@@ -10554,12 +10767,12 @@
       <c r="AE7" s="11"/>
       <c r="AF7" s="11"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="54">
         <v>7</v>
       </c>
       <c r="B8" s="54" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>28</v>
@@ -10568,7 +10781,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="59" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F8" s="54"/>
       <c r="G8" s="54"/>
@@ -10598,12 +10811,12 @@
       <c r="AE8" s="11"/>
       <c r="AF8" s="11"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="54">
         <v>8</v>
       </c>
       <c r="B9" s="60" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C9" s="26" t="s">
         <v>28</v>
@@ -10613,23 +10826,23 @@
       </c>
       <c r="E9" s="54"/>
       <c r="F9" s="54" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G9" s="54" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H9" s="55" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I9" s="54"/>
       <c r="J9" s="26" t="s">
         <v>22</v>
       </c>
       <c r="K9" s="26" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L9" s="56" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M9" s="54"/>
       <c r="N9" s="54" t="s">
@@ -10638,10 +10851,10 @@
       <c r="O9" s="54"/>
       <c r="P9" s="54"/>
       <c r="Q9" s="28" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R9" s="28" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="S9" s="54"/>
       <c r="T9" s="11"/>
@@ -10658,12 +10871,12 @@
       <c r="AE9" s="11"/>
       <c r="AF9" s="11"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="54">
         <v>9</v>
       </c>
       <c r="B10" s="60" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>28</v>
@@ -10673,25 +10886,25 @@
       </c>
       <c r="E10" s="54"/>
       <c r="F10" s="54" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G10" s="54" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="H10" s="55" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I10" s="55" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="J10" s="26" t="s">
         <v>22</v>
       </c>
       <c r="K10" s="26" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L10" s="56" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M10" s="54"/>
       <c r="N10" s="54" t="s">
@@ -10716,7 +10929,7 @@
       <c r="AE10" s="11"/>
       <c r="AF10" s="11"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -10757,6 +10970,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006150CD2B74865543AE839454BD4B5DC6" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a2ee5e546ec1836f671c2a05bfe6bfc8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="0be14d6d-d8a1-45f7-9f98-2db40f8691c4" xmlns:ns3="567c5c99-f8da-409a-bc28-51b94ad9a241" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9e7ff770c31624934d8e1a633c6fbe95" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -10990,25 +11221,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB0B3A61-2E64-4CE7-BDD4-6ECB945D22FD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E980A1B9-8C22-45F7-8344-5E520FA354EB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64F77A26-17A6-43DF-A115-F9EC24E62EB0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11026,22 +11257,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB0B3A61-2E64-4CE7-BDD4-6ECB945D22FD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E980A1B9-8C22-45F7-8344-5E520FA354EB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>